--- a/豆瓣可视化/book.xlsx
+++ b/豆瓣可视化/book.xlsx
@@ -1373,7 +1373,11 @@
           <t>https://book.douban.com/subject/30172069/</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>理想的培养、逻辑的思维、高雅的阅读等不能让别人爱你，但却能让你坦然接受不被爱。</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1400,7 +1404,11 @@
           <t>https://book.douban.com/subject/35170896/</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>各位友邻，当当、京东、天猫都有卖了，关键字“果麦 平面国”。如果你们相信谢耳朵的品味，阿西莫夫的品味，诺兰的品味，还有我的品味（你谁啊你?）快去买一本!如果读了觉得不精彩你们找我！</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1427,7 +1435,11 @@
           <t>https://book.douban.com/subject/26879778/</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>【2017.49】有人的地方就有偏见，然而啊，亲爱的孩子，心存善念，坚持正义让你活得更有教养，更有尊严，更问心无愧。</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1454,7 +1466,11 @@
           <t>https://book.douban.com/subject/35984787/</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>看到女人们为了换取食物而沦为一群男人的泄欲工具那里真的看不下去了，太肮脏也太痛苦了，无法言喻的绝望。人类进化千年才形成的秩序与规则，引以为傲的文明，仅需一场瘟疫就能全面崩塌。优雅与理智的外衣全部扯碎，暴露最不堪的阴暗面。</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1481,7 +1497,11 @@
           <t>https://book.douban.com/subject/36164047/</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>生为东亚人太苦了：东亚女人的苦在于她们太能吃苦了，而东亚男人的苦在于他们吃不了东亚女人吃下去的那些苦。</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1508,7 +1528,11 @@
           <t>https://book.douban.com/subject/10554308/</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>新版封面，严重剧透。</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1535,7 +1559,11 @@
           <t>https://book.douban.com/subject/36721763/</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>“母性”是自我实现的反面。一个女人最大的不幸在于，还没找到自己，就先成为母亲。</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1562,7 +1590,11 @@
           <t>https://book.douban.com/subject/1770782/</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>大家都喜欢那句“为你，千千万万遍”，我却喜欢“我们有什么权利指责别人的过去”</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1589,7 +1621,11 @@
           <t>https://book.douban.com/subject/33658616/</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>吹爆！妈妈问我为何跪着看书！难以置信这是1989年的作品 太太太超前了吧   放到现在也很超前  2019年度最佳了！[爱心][爱心] 2022.5.6二刷</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1616,7 +1652,11 @@
           <t>https://book.douban.com/subject/20421947/</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>没有一句废话！！！看似东拉西扯的叙述视角，竟然恰如其分，不至于看到这儿忘了那儿，他会悄然声息地提醒你，我讲到这儿了噢，这个事儿我之前有浅显提过的哦，想起来了吧！我现在要铺陈开来讲了哦！那种感觉！厉害！！！</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1643,7 +1683,11 @@
           <t>https://book.douban.com/subject/36438836/</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>我买了平装台湾版，又从图书馆借了韩文原版，拿到这个精装简体版发现某些本以为会删的译文不但保留了，而且处理比台版好、更贴近韩文原意（比如빨갱이，此处不便展开，详情请看书），书封的营销文句比台版更鲜明（台版列举本书在韩国得了两项文学奖及是三家电商畅销书，但中国读者不熟悉这些奖项和电商啊）。当然，也有不得不删改的字句，比如仅出现两次的“6·25韩战”改成“战争”，我觉得在当前出版形势下可以理解，对全书影响不大；不过，第222页第四段删了最后一句“听说没有失去胃口的人活得久，妈妈会很长寿的”就有些让人摸不着头脑。另外，由于用的是台版译文，译者的两处误译（详见台版条目我的读书笔记）编辑没有看出来，译者也没有把韩江那几百字的参考文献翻译出来。希望再版时能修订增补。最后有彩蛋：简体版《少年来了》即将出版</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1670,7 +1714,11 @@
           <t>https://book.douban.com/subject/27104959/</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>想建立一个辱骂尼诺小组 谁骂得最好谁当组长</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1697,7 +1745,12 @@
           <t>https://book.douban.com/subject/27614904/</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25岁生日这天把房思琪交付印厂，简体版2018年1月25号上市。做这本书的过程经历了很多，简体版的授权很不容易，感谢游击文化对我们的信任和配合。简体版也得到了他们的认可，除了几处极个别的涉台词语外极少删减，性描写也基本保留，奕含写的克制而干净，实无删改之必要。感谢出版社老师对这本书的爱护，尊重了作者文字。感谢李银河戴锦华张悦然詹宏志蒋方舟等老师的郑重推荐。感谢很多人，为了房思琪和更多读者的相遇。这本书值得也应该被更多人看到，是我的初衷，也是我的目标。
+ps2020.07房思琪精装版出版，把在出版两年多里收到的建议做了用心调整。</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1724,7 +1777,11 @@
           <t>https://book.douban.com/subject/26986954/</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>我很真诚的讲：作者用极其扎实的故事告诉了女人们，为什么不能太早结婚以及为什么要坚持上学读书……（一本真正的女性主义小说</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1751,7 +1808,11 @@
           <t>https://book.douban.com/subject/35080870/</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>马亲王写起感情戏来确实让人毛骨悚然。“荊溪你就是我的锚，我的定盘星。”尬到这种境界确实不易。</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1778,7 +1839,11 @@
           <t>https://book.douban.com/subject/1029553/</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>把这书列为四大名著之一,说明我们民族还是有眼光的.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1805,7 +1870,11 @@
           <t>https://book.douban.com/subject/36283547/</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>最后的那封信贯彻了作者对各个人物的公平</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1832,7 +1901,11 @@
           <t>https://book.douban.com/subject/35587028/</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>真的不喜欢，每一个轮回都患有雄性癌，头可掉雄风不能丢，没读出什么时代史诗，倒像是一场盛大的睾丸保卫战！</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1859,7 +1932,11 @@
           <t>https://book.douban.com/subject/36407256/</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>发现这本书的时候，大概还有一周就离职了。冲到卫生间刷完作者的视频，拜托小伙伴去要书稿，后来飞快地审完整个故事，最后幸运地译上了。是我心目中那种能流行的悬疑小说，提供刺激有趣的情绪价值，勾着人一口气读完。另外，私以为作者的第二部比第一部写作方式更成熟，敬请期待。</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1886,7 +1963,11 @@
           <t>https://book.douban.com/subject/26362836/</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>我敢说我从前读这本书的时候并没有真正感同身受。难道这不就是人的一生吗？从无知天真的孩童成长，变成掌握知识的人，最后垂垂老矣之时变得糊里糊涂。而且变笨的时刻未必是在衰老之后，许多当年的神童大学毕业后工作几年便泯然众人，然后不会再记得年少时聪慧的念头闪过脑海的感受。</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1913,7 +1994,11 @@
           <t>https://book.douban.com/subject/1007305/</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>盛衰之理，本为天命。然而人心就是如此。眼见得他起高楼，于是便不忍心见他楼塌了。见过他鼎盛的时候，再看他的衰败就无比心酸。而更加可悲的是，目睹这场哗变的你，本就是这戏中之人。</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1940,7 +2025,11 @@
           <t>https://book.douban.com/subject/35989392/</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>这本书跟诺兰的电影好相似😅一种生怕读者体会不到作者深刻的思考和饱满的情绪，满篇大论地描写解释所有事情，并且女性永远围着男人转，🆘。虽然这样，结尾第一个错别字出现的时候真的很恐怖。</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1967,7 +2056,11 @@
           <t>https://book.douban.com/subject/36932547/</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>“童年和青年充满了动词。你一刻都闲不住。你的一切都在成长，如火如荼，发展壮大。然后，动词逐渐被中年的名词取替。孩子，车子，工作，家庭——都是名词的实质性内涵。衰老是个形容词。我们进入老年的形容词——迟缓，无垠，朦胧，冷峻，或者像玻璃一样透明。”</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1994,7 +2087,11 @@
           <t>https://book.douban.com/subject/36933259/</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>又来给自己的翻译打广告了.jpg 不知道等了多少年终于有了试读本啊啊啊啊！！！梦幻与现实之间的微妙转换，高烧与清醒之间的垂死博弈，人类在终结面前是手无寸铁的，而众神希望保留人类的不协调与不完美。</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2021,7 +2118,11 @@
           <t>https://book.douban.com/subject/37042948/</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>“我想你画我”，画我的肩胛骨和脊背连成的沙漠，以及因为饮食失调，偶尔绷紧突起的肚子，但请不要画藏在连裤袜下面，我腿上的疤痕。 画我在边界线上例外状态的生活，画束草的冬天（真实），而不是夏天（娱乐化的非常态），用墨水（无法擦除）而不是铅笔画。我以你的眼睛和手，甚至是语言去认识和面对我自己，面对我与遥远国家的链接。女孩的身体与身份是交织在一起的两条叙事，以那条蜿蜒在她腿上的疤痕，印证她的身体本身就是朝韩边境线—充满内部冲突与暴力的容器。男女主对于束草和诺曼底的讨论——一个战争一触即发的发生地，与曾经布满战争伤痕的地带，指向了她的欲望和冲突是向外获得理解，于是有了那么多充满尴尬、沉默，无法言明，以及在此地完成那个故事的执着。全文最后那句，或许是内在冲突和自虐的结束，另一种层面的closure。</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2048,7 +2149,11 @@
           <t>https://book.douban.com/subject/30475767/</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>不知道的我还以为五月天又出新书了……</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2075,7 +2180,11 @@
           <t>https://book.douban.com/subject/35005045/</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>总不能每篇都做梦吧，最终要以思想力说话，只有修辞迷幻术的话只能吸引什么打五分的读者呢：1）认为文学止于语言、意境与情思，除此之外说不出所以然（“文笔”论是文盲时代的产物）；2）以为想象力是比喻联想；3）没有领略过古典文学，少见多怪；4）读博尔赫斯等只见皮毛的半吊子；5）放在二十年前喜欢林清玄简嫃，十年前喜欢《读者》；6）不以吸取养料为读书目的。这些读者读新闻历史最多感慨兴衰命运，朴素人道情怀，但对人的处境说不出所以然，平常也没接触什么好作品。当然也不是读者的问题，目前我们处在文化低谷，从小也没接受好文字的滋养，更不用说分析能力了，因而对于文学中急需纠弊的语言与思维问题，都还没引起重视，哪是超越同龄写作者的初始阶段，都回避谈论这些议题了。</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2102,7 +2211,11 @@
           <t>https://book.douban.com/subject/6082808/</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>每个人都是孤独地出生，在这世间恍惚几十年并不漫长的日子转眼就远去了，然后再孤独地死去。 生命注定是个悲剧，因为我们从没有融入世界，世界永远是身外之物。如果有幸，能在茫茫人海寻得一个身体与灵魂都与自己万分契合的人，与之存在一种可以称之为爱情的联系，然后一起承受生命中不可逃离不可消除的深沉的宿命的孤独。可是这般的幸运艰深难得。有的已失去了爱的能力，有的爱得深沉却无处安放，有的死在这爱里……在所有的爱里，孤独有增无减。  生命只是一场幻梦。</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2129,7 +2242,11 @@
           <t>https://book.douban.com/subject/36878587/</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>别的不说，就这个封面，跟前四部不统一就挺恶心的</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2156,7 +2273,11 @@
           <t>https://book.douban.com/subject/2567698/</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>一直认为写作是件很耗费体力与脑力的事情，特别是从新构架一个新的世界，一个文明。这需要你有丰富的尝试与思考，过去，我们从来不缺少天马行空的想象力，但是少有一个如刘慈欣般有着历史、物理学与哲学思考的作者。所以从这个角度来讲，三体的出现对中国科幻界绝对是幸事。霍金之前曾经警告过我们，如果有外星人，他们对地球也是恶意的。那时我不懂，在读完这本书时我回想自己小时候拍打小虫子时的情景。或许，在更高级别的文明里，你我只不过是虫子。</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2183,7 +2304,11 @@
           <t>https://book.douban.com/subject/26878124/</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>女主如此关注他人，对人情世故和他人情绪的过度分析，来源于她不爱自己。</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2210,7 +2335,11 @@
           <t>https://book.douban.com/subject/36069426/</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>这哪是文学作品，为了能薅印刷品羊毛一波，就差没直说是电视剧剧本了，还是那种情节直白，演员表演夸张，就怕观众看不懂的网剧。马伯庸的水平本就一般，没压住“哪个制片方赶紧来买我版权”的内心真实想法，就是这样一本地摊读物，弃</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2237,7 +2366,13 @@
           <t>https://book.douban.com/subject/36448199/</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>看的过程中很多次崩溃大哭。因为很多次也产生过“绝对不原谅任何人，包括我自己”的想法。要是真的有一两个切实可以恨的人也算幸运，起码能带着复仇的决心以血还血。可惜是整个体制、暴力机器、懦弱的你我，一起造成了灾难。所以“不赦免任何人，也不接受赦免”。
+想到穿着天蓝色校服的东浩，想到他帮爸爸踩背时听到“很荒谬吧，拳头怎么赢得过枪呢”，想到他听话举起双手却被射杀时，心里都会感到窒息。
+天父又凭什么赦免这些人呢。</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2264,7 +2399,11 @@
           <t>https://book.douban.com/subject/36954766/</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>“恐怖伊恩”老年转型，不只描绘日常生活中的恐怖，而是探索恐怖的历史背景与个人心理的成因。这部小说的噱头是众多自传元素，比如幼年的海外生活、寄宿学校的经历、特别是母亲遗弃了哥哥和姐姐——他被这一事件所震撼，在不止一部作品中进行真相探索。不过，性侵少男的女老师是虚构的，抛弃丈夫和孩子成为顶流作家的妻子也是虚构的，这不是自传，这是小说。在小说中，“被老师伤害”和“被妻子遗弃”，是主人公人生中的两件大事，也是作者对男权社会的一次倒转，对女性主义的一次探索。除了主人公一生中各项重大历史事件，我觉得本书最大贡献是写了女性群像：老师、妻子、母亲、岳母、红粉知己，她们复杂、立体、既非天使也非妖妇，不能一概而论，因此主人公也只能选择道义上谴责、情感上原谅。直觉近年西方现实主义文学回潮，三十年河东三十年河西吧。</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2291,7 +2430,11 @@
           <t>https://book.douban.com/subject/37039141/</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>斯蒂格·达格曼简直是万能的！上帝视角可以看《杀死一个孩子》，女性视角看《开门，理查德》，酒鬼颓废大叔视角看《我的冰岛毛衣呢》，天真孩童视角看《雨夹雪》《夜晚的游戏》，恐怖悬疑视角看《陌生人》《红色车厢》......</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2318,7 +2461,11 @@
           <t>https://book.douban.com/subject/36727318/</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>我胆小如鼠，万千鼠辈之一。第一个故事也太现实了！从小被教育听话的人勤奋努力自律却处处受制，懒惰霸道放纵的人成为了主流世界的大多数。总以为忍一忍就能过去了，其实人家就是因为你忍一忍才一直欺负你啊</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2345,7 +2492,11 @@
           <t>https://book.douban.com/subject/36438780/</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>韩江与世界的非暴力沟通三部曲，《素食主义者》拒绝吃肉，《失语者》拒绝语言，《植物妻子》拒绝感情。</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2372,7 +2523,11 @@
           <t>https://book.douban.com/subject/36980164/</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>第一本写的是愤怒，第二本写的是痛苦。“看见她们”只是开始。</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2399,7 +2554,11 @@
           <t>https://book.douban.com/subject/26925171/</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>显海瑞之刚直而似伪，状嘉靖之神异而近妖。这样的情节构思、人物塑造，在当代中国历史小说中已然封神，而我还是要吹毛求疵几句：反派远比正派出彩。胡宗宪、戚继光、海瑞者流，都是黑料在身，没必要为他们遮遮掩掩，粉饰太平放不开，立意笔力反倒弱了，实在遗憾。</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2426,7 +2585,11 @@
           <t>https://book.douban.com/subject/36021908/</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>这次坚持了三分之一……我知道葛亮的问题在哪儿了，他其实不会写严肃文学，这和祖师爷赏不赏饭都没关系，他就是不知道情节该怎么铺陈。本质上他的长篇都是金庸的底，这本尤甚，把做饭换成武功的话全书甚至更顺了，那些令人难以理解的桥段也就说得通了，武侠小说就是这么写的嘛。与之相比语言矫揉都是小问题。而且我发现这货居然写东西也有口头禅……</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2453,7 +2616,11 @@
           <t>https://book.douban.com/subject/26672693/</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>最后，让我们念念不忘的，还是曾让我们难以忍受的生活。</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2480,7 +2647,11 @@
           <t>https://book.douban.com/subject/10594787/</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>想写本小说：男主是饿了么的外卖员，某次上门送餐，女主惊鸿一蹩给半个世纪后的爱情纠葛埋下伏笔。男主千方百计要到女主的 QQ 号，两人聊得火热，在网上结下山盟海誓。聊了两年，某次偶然见面让这段网恋见光死。后来，女主在一次 O2O 的上门会诊时被高富帅医生盯上，这次误诊让他们发展为夫妻。男主伤心欲绝、萎靡不振过后，下定狠心要赢得她，要赢得匹配上她的名誉和财富，要等着情敌的死去，哪怕等到世界末日。他下载了 KEEP 乐动力悦跑圈一堆健身 APP，锻炼身体。他在微信陌陌上寻花问柳，但为她保持着内心的贞洁。他加入滴滴从事运输行业，从程序员做到董事长。五十一年后，女主的爱人去世了，男主再次向女主重申对她永恒的忠诚和不渝的爱情……五十三年后，他 76，她 72，男主备胎转正。书名叫《互联网时期的爱情》</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2507,7 +2678,12 @@
           <t>https://book.douban.com/subject/26734559/</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>棋王:我心里忽然有一种很古的东西涌上来，喉咙紧紧地往上走。
+  树王:那火的顶端，舔着通红的天底。我这才明白，我从未真正见过火，也未见过毁灭，更不知新生。</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2534,7 +2710,11 @@
           <t>https://book.douban.com/subject/34996429/</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>有很大的漏洞：凶手用小手斧杀人是为了冒充连环杀手小原岁三作案，而存折是将凶手和宇津木联系起来的关键性线索。凶手肯定是希望小手斧被警察发现，存折不要被警察发现，所以断然没有将两者埋在一起的道理。</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2561,7 +2741,11 @@
           <t>https://book.douban.com/subject/36848782/</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>“因为光就诞生在这最糟糕、最黑暗的日子里。”</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2588,7 +2772,11 @@
           <t>https://book.douban.com/subject/21371175/</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>我擦！！！！！！！！！！！！！！！！！！！！！！！！！</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2615,7 +2803,11 @@
           <t>https://book.douban.com/subject/36754770/</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>我们穷其一生试图寻找爱情来抵御孤独，然而孤独就像那岛上每年的八月十六日，一直在那里，没有人能改变。</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2642,7 +2834,11 @@
           <t>https://book.douban.com/subject/36109174/</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>我应该早点读，第一篇当头一棒，青春期的女孩总是试图用玫瑰色的滤镜去美化一个普通甚至差劲的恋人。</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2669,7 +2865,11 @@
           <t>https://book.douban.com/subject/25862578/</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>真的要到很久以后，才会明白，每一个选择只要努力过，都是正确的选择。</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2696,7 +2896,11 @@
           <t>https://book.douban.com/subject/36962267/</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>这是不是《死亡护理师》？</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2723,7 +2927,11 @@
           <t>https://book.douban.com/subject/4908879/</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>什么时候乔治·奥威尔的书才能被收录进语文课本</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2750,7 +2958,11 @@
           <t>https://book.douban.com/subject/3211779/</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>被震爆了。西方作家打死也写不出来的一类小说。还不是纯东方的，而是纯日本的。石神的情感模式和日本武士道剖腹、神风敢死队自杀式攻击的献祭式情感模式是完全一样的。瞬间的喜悦。瞬间的悟道。极致的浪漫。</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2777,7 +2989,11 @@
           <t>https://book.douban.com/subject/37013827/</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>苏格拉底早就说了，结婚是一件你做不做都会后悔的事情，但还是那句话，如果你从没想过在婚姻里获得幸福，那你的婚姻就极有可能是幸福的。生与不生，都需要勇气，但还是那句话，要孩子是为了参与一个生命的成长，参与意味着付出与欣赏，而不是把传宗接代、养儿防老放在首位。</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2804,7 +3020,11 @@
           <t>https://book.douban.com/subject/36392723/</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>长评发在🍠了，这里主要反驳一下热评中“作者像是创作出了一个她想象出的世界，所有男的都很坏，所有女的都不错”的观点：你知道有多少男作家的书里都创作了“所有女的都很坏，所有男的都不错”的世界吗？</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2831,7 +3051,11 @@
           <t>https://book.douban.com/subject/36084340/</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>有一副自大的状态，觉得“我就是在写生活的苦难和不屈的人们，你们不认可就是没脑子”，说教味太浓了，语言贫瘠（不是朴实！朴实的语言不是这样！），营销过度。</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2858,7 +3082,11 @@
           <t>https://book.douban.com/subject/36953534/</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>简体和台版都预购了，没想到最后还是简体先到货。读了两篇感觉不对劲，有些地方翻译很怪，有些情节也很迷糊，不太确定是不是删减了什么或是赶工出品疏忽造成的。决定还是等台版到了再读吧。（预打个60分）</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2885,7 +3113,11 @@
           <t>https://book.douban.com/subject/24382569/</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>如果有人统计一下马尔克斯小说的词频，一定会发现『多年以后』高举榜首……</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2912,7 +3144,11 @@
           <t>https://book.douban.com/subject/1054917/</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>应该说，这本书把“逼良为娼”的心态描写得非常好……</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2939,7 +3175,16 @@
           <t>https://book.douban.com/subject/36897370/</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>初读几次湿了眼眶，但心里隐隐的开始提防起来。这一切都太标准了，都设计得太精巧了。慢慢就发现这些故事固定的套路，于是心生厌烦、油腻难忍。
+这些草根的人物，讲述着人生的哲理，用着极不合身份深奥的字句，就为了启发我返璞归真、为了保障我乘风破浪、为了坚守着故乡……
+我被腻住了。
+他笔下的人物脱离了生活，被刻画成了符号，识破了，就轻蔑了。
+果断放下书，
+出去透透气</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2966,7 +3211,11 @@
           <t>https://book.douban.com/subject/36872349/</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>如果反派降智，那便凸显不出正派的神勇和机智；如果要讲述一个传奇，那一定要在传奇之前加以另一种传奇作为其引子。《象棋的故事》就是这样的经典，当你以为天才少年是主角时候，在书本三分之一处作者笔锋一转，让真正的主角闪亮登场。当然，故事的本质还是对纳粹法西斯的控诉，作为茨威格的最后一个作品，全书依然充斥着不少作者擅长的心理描写内容。至此，关于“棋”的故事小说，东方有阿城的《棋王》，西方则是茨威格的《象棋的故事》，再无出其右。</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2993,7 +3242,21 @@
           <t>https://book.douban.com/subject/35272817/</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>硝烟的味道留在嘴里是苦的
+毒气会像水母一样袭来
+中毒的人会连续几天咳出烧掉的肺
+刺刀要刺肚子不刺肋骨防以被卡住
+有人死了就说屁股夹紧了
+调侃一切只为不致疯狂
+新发的衣服会在受到皇帝检阅后收回
+敌人信上的语言无法读懂
+但每个能破译的词都像一颗子弹射向胸膛
+看过许多关于一战的影像，但那些残酷的影像都不及文字带来的冲击大。因为这些文字都直接来自当年那些“迷惘一代”的真实所想，能硬生生把人带回残酷的泥泞之地。
+书读完了，我却记不住几个名字。我也相信很快就会把故事忘得一干二净。这不是因为它不好，恰恰是因为它太普世。当你环顾四周，那些工匠，职员，学生，农民，教师，就是百年前他们奔赴战场前的模样。</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3020,7 +3283,11 @@
           <t>https://book.douban.com/subject/36109193/</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>成人面对失去是渐渐把它调静音的过程</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3047,7 +3314,11 @@
           <t>https://book.douban.com/subject/26877752/</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>最大的恶意不是杀了你，而是毁了你。</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3074,7 +3345,11 @@
           <t>https://book.douban.com/subject/35503551/</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>吹的也太过了，完全比不上绝叫，甚至比死亡护理师还差点，已经没有什么推理成分了，还期待有什么反转，结果也没有。平成挽歌，令和赞歌。想讨论的问题确实比较宏大又复杂，反而不如绝叫专注女性处境容易打动人。而且用外部视角来看blue的成长经历还差点意思，关键是blue本人心理又经历了什么，这可能才是这个主题最重要的东西。</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3101,7 +3376,11 @@
           <t>https://book.douban.com/subject/26864984/</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>忍不住又读一遍，伊坂太会讲故事，看似闲笔，皆有用意，没浪费每一个伏笔，每一个角色。结尾真是温暖到哭，我们改变不了这个操蛋的世界，可至少还在努力地活着。樋口晴子真是出彩，带着女儿换汽车电瓶那段，难道没让你生出“她要是我的前女友就好了”的感慨？</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3128,7 +3407,11 @@
           <t>https://book.douban.com/subject/34434309/</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>五年前或更早的时候，我可能还曾傲慢无礼又冷酷没良心地觉得这样的生活与自己无关呢，就像大学里的金智英短暂地觉得自己和母亲将拥有不同的人生。而实际上，东亚这种结构性的性别泥沼，可没有什么旁观者和幸存者。</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3155,7 +3438,11 @@
           <t>https://book.douban.com/subject/1041007/</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>回头再看，第一本算是光明又轻盈的。</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3182,7 +3469,11 @@
           <t>https://book.douban.com/subject/36692820/</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>对我而言，读安妮·埃尔诺的享受之处在于，她总能把生活中极其私密的部分，用近乎冷酷的方式表达出来。与其说她在写自己的激情和羞耻，不如说她在观察自己的激情和羞耻。如此，她成为了自身的旁观者。她识别，并仔细地在文字中摆放构建了这些情绪的征兆，事件，人物，隐喻和细节。这种恰到好处的距离和秩序，让我感到平静，尽管这不是那种温馨的平静，而是像埃尔诺所言的“平静地靠近不幸的感觉”。在堕胎前后的痛苦之中，身体成为承受暴力的场所，这段记忆是埃尔诺的个人记忆，也是女性链条之上的集体经验，“我的故事就在她们之中”，如此冷竣，如此沉重。</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3209,7 +3500,11 @@
           <t>https://book.douban.com/subject/35221700/</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>多年以后，面对刚刚写下的《百年孤独》第一行，加西亚马尔克斯将会回想起自己读到胡安鲁尔福那句“雷德利亚神父很多年后将会回忆起那个夜晚的情景”的遥远的晚上。</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3236,7 +3531,11 @@
           <t>https://book.douban.com/subject/35496106/</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>以日常生活和底层人物做底料，用后现代式的变形夸张疑神疑鬼生死穿越做佐料，刘震云熬制出了一锅如同书中所写的美味猪蹄，毛剃干净了火候也正好，就着两口小酒和几段笑话便是人生云云。有点神秘的创作初衷让整本书带着一层虚幻的纱，但语言的接地气又让故事解个烦闷般的易读。人生是场因果轮回也是一段缘起缘灭，到最后谁不都是像听个笑话一样的一笑而过。人生如果是一日般长短，命运就像三秋般轮回辗转。奈何奈何？咋办咋办？</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3263,7 +3562,11 @@
           <t>https://book.douban.com/subject/35060088/</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>姜乙翻译的黑塞确实有味道。读起来朗朗上口，像诗歌一样，沁人心魄。好想读姜乙翻译的黑塞作品，希望可以继续翻译黑塞呀。歌德也行……</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3290,7 +3593,13 @@
           <t>https://book.douban.com/subject/27002046/</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>男作者想到利用科技控制生育的办法是给70%的女性注射雄激素，让她们变成长胡子且没有生育能力的雄化雌体。但如果科技真能发展到那一步，只需要阉割掉多余的男性，让他们的精子丧失活性就可以了。按照“效率至上”的原则，这才是最有可能的发展方向。
+不论是《1984》还是《美丽新世界》，乌托邦是男人的乌托邦。男人被剥夺自由，而女人呢，女人从来谈不上自由。她们从来只是点缀其间，扮演子宫、腰肢和乳房。
+这就是雄性狭隘的想象力，比《1984》烂了不止一条大街。</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3317,7 +3626,11 @@
           <t>https://book.douban.com/subject/33440205/</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>看到急着吐槽译名的人，忍不住想替译者/编辑高亮这句话(〃&amp;#39;▽&amp;#39;〃)——你当像鸟飞往你的山（Flee as a bird to your mountain）。出自《圣经·诗篇》，这句话本身有双重解释，一种是“逃离”，一种是“找到新的信仰”。另：作者亲定中译名。</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3344,7 +3657,11 @@
           <t>https://book.douban.com/subject/34933180/</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>妈的，写这么牛逼，卧槽</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3371,7 +3688,11 @@
           <t>https://book.douban.com/subject/5363767/</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>大刘说书中的结尾不是他预想的那个，他预想是所有的小宇宙都归还了物质，但惟独因为程心留在647宇宙的小小鱼缸而导致整个宇宙无法重启，也就是说圣母在坑了地球坑了太阳系后，又坑了全宇宙。</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3398,7 +3719,11 @@
           <t>https://book.douban.com/subject/24257229/</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>不悲天，不悯人，不煽情，不刻画英雄。有的只是极端环境下所必需的生活与抗争。加缪很讨厌上帝视角，却要比上帝视角牛逼不知道多少倍。</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3425,7 +3750,11 @@
           <t>https://book.douban.com/subject/35315153/</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>与译者的译后记观点不同，我觉得克拉拉第二次向太阳祈祷后，乔西神迹般痊愈以及后续的故事都是假的。是克拉拉为了破坏库廷斯机器献出自己的PEG9溶液，慢慢造成了认知错乱。乔西没有痊愈，乔西的母亲发现克拉拉出现认知障碍，放弃了延续乔西的计划，并把克拉拉扔到了杂物间，最后遗弃至堆场。（PS：期待有一天能看到这部小说改编的电影）</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3452,7 +3781,11 @@
           <t>https://book.douban.com/subject/36956148/</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>最喜欢的地方是妈妈不让二舅妈三舅妈干活，坚持让她们休息这个情节。</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3479,7 +3812,12 @@
           <t>https://book.douban.com/subject/36155568/</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>第一本的优缺点在第二部都得到了放大。更宏大，更煽情，更像剧本。主角光环也更重
+。作者写作时有意写得爽，写得煽，塞满千钧一发最后一刻营救的桥段。图穷红光现。遗憾这本书没有再往后写二十年，没有写到历史中的颜福庆84岁高龄时被打倒批斗备受凌辱，88岁病发被他亲手创立的上海中山医院拒绝收治，含辱去世。我猜测一下书中三位主角后来的命运：姚英子病逝十六年后，因“汉奸问题”又被批斗，坟墓被捣毁，挫骨扬灰。孙希拒绝揭发姚英子，又因其和日本人合作给军统特务做手术，同样惨遭批斗。他的枪决执行令由高级干部方三响同志含泪签发。</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3506,7 +3844,11 @@
           <t>https://book.douban.com/subject/36865034/</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>比剧好看多了。并不认为作者文笔不好，恰恰相反，我觉得作者直白赤裸的文笔才能恰如其分刻画出金边坡这地方的原生态，用狗咬狗都不足以形容此地那种、直击灵魂深处的极致恫吓，甚至，人都没有灵魂，出卖给了魔鬼。剧版很做作，是长自文明社会的我们对重度野蛮的一种刻奇想象，真实的故事才让人如鲠在喉，语言文字都失去力量。原著的沈星更“男”一点，不回避任何男性原罪，好色、明哲保身、缺乏耐心等等鲜明的劣根性都是有的，所以他才能在金边坡苟活下来；剧版那个傻白甜？纯靠的是大男主光环，根本没有那种每天提着脑袋在裤腰带上过活、刀口舔血的紧张感。在金边坡，“小恶不是恶”，妻子卖淫丈夫在旁边麻木围观还要赔笑，妻子却惨笑，“我可以陪他吃很多苦，就是享不了福。”在这种基本的人性早被扭曲到变形的地方，狗咬狗都说轻了。</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3533,7 +3875,11 @@
           <t>https://book.douban.com/subject/2143732/</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>读胡赛尼的书，总有一个感觉：阿富汗曾经真的是一个很美的地方。因为战争……毁了这一切……</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3560,7 +3906,16 @@
           <t>https://book.douban.com/subject/36826819/</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>放在今天，平庸。
+毕竟是六十年代的老作家，文笔是比新一代沉稳一些的，当然，是不同于文学的沉稳，日推式的文笔大多都是这样朴实无华。
+没有诡计，整体毫无起伏，更没有意料之外。流程就是抽丝剥茧，这部分中规中矩。
+对于孤岛的人物行为逻辑也有瑕疵。比如，凶手已经偷了利器，其他人也知道他会继续行凶，却还是一个个独行出去送。
+还有推理逻辑链也有瑕疵，比如：人狂奔时不能折树枝，不知道以为你在玩人类一败涂地这种游戏呢。
+所以，应归入社会派，平庸</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3587,7 +3942,11 @@
           <t>https://book.douban.com/subject/10517238/</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>像少平一样做一个对精神世界一丝不苟的人，像少安一样做一个对现实生活脚踏实地的人</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3614,7 +3973,11 @@
           <t>https://book.douban.com/subject/26265745/</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>挺难评价的，作者功底深厚，有想法，善码字，坑也挖得够大。花开四朵，收为一束的布局，看起来很棒，但是人物太多，脸谱也有重叠，看到后面会很疲劳。推理方面，悬念不错，但没有演绎，都是作者为大的写法，动机和过程基本上都是插一段人物的回忆杀来揭晓，甚至细节也这样揭晓，个人非常讨厌把时间点往前移然后上帝视角的写法，这样没有一点惊愕感，比如《四签名》《玻璃之锤》的动机揭晓。至于诡计，如果作者没有把它当推理小说写，那可以接受。</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3641,7 +4004,11 @@
           <t>https://book.douban.com/subject/36668331/</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>流亡文学，记忆文学，碎片文学。乌老师姓名前面的“荷兰”，是她后来定居的国籍，南斯拉夫和克罗地亚，才是她的乡愁所在。二战、冷战和1991年南斯拉夫内战，将她与家人、友人的生活切成了碎片。当一个国家消失，集体记忆也会消失；当物体消失，对于日常生活的记忆也随之消失。本书里，作者从相册、小物件、流亡之旅中拯救记忆，在宏大的政治之下，那些私人的难以忘怀的物质和情感细节，如此纷繁杂陈。人是历史这个无形博物馆中会行走的展品，流亡者尤甚。——可以和《记忆，记忆》对读。</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3668,7 +4035,11 @@
           <t>https://book.douban.com/subject/6789605/</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>现在，如果有人和你说：一个人上了树一辈子不下来，请你把他的一生写下来。我相信如果没有出色的想象力，一定是无聊且荒诞的。但是卡尔维诺竟然写得跟真的似的。不过相对于《百年孤独》，同是虚构写作，百年孤独越看越像现实，卡尔维诺的这种现实性则不是那么强烈，你也相信他是真的，但是它更像是另一个世界发生的。完全是创造了一个平行宇宙的感觉。强烈推荐！</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3693,7 +4064,11 @@
           <t>https://book.douban.com/subject/4820710/</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>这是我看过最吓人的一本书。不是可怕而是深深的恐惧。</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3720,7 +4095,11 @@
           <t>https://book.douban.com/subject/3066477/</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>庄颜这个角色太苍白了（为什么刘慈欣写的女人都那么蠢），为此给神一样的罗辑降成半神……</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3747,7 +4126,11 @@
           <t>https://book.douban.com/subject/26899537/</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>长安反恐24小时加上还算巧妙的布局其实都不足以五星，但作者对于长安的描写真的太细致，这背后不知有多少篇论文的支撑。</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3774,7 +4157,11 @@
           <t>https://book.douban.com/subject/5988624/</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>难道只有我一人在纠结翻译腔的问题吗</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3801,7 +4188,11 @@
           <t>https://book.douban.com/subject/24257486/</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>伟大的文学作品不会给出任何答案 只会提出更多问题</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3828,7 +4219,11 @@
           <t>https://book.douban.com/subject/11524204/</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>看着心累，方鸿渐就应该跟赵辛楣搞基。</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3855,7 +4250,11 @@
           <t>https://book.douban.com/subject/33395266/</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>所谓经典，就是确实挺波澜壮阔的，唯一的问题是我现在太缺少耐性了，遥想当年，总是嫌金庸小说太薄了，恨不得每本能有一万页，可现在，超过三百页的都很难克化得动了。。。</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3882,7 +4281,11 @@
           <t>https://book.douban.com/subject/37032993/</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>没有厚重的经历，没有过人的才华，这是一本凭借直觉堆砌的作品，可能高中的我会感觉很深刻，而我现在只觉得布满封面的“女性主义”只是出于商业卖货的考量。书中用过多的性掩盖文本的浅薄，性似乎是作者唯一的表达途径，好无聊好肤浅文笔好差的一本书，我就是韭菜，再因为“女性主义”就无脑买就跳楼吧</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3909,7 +4312,12 @@
           <t>https://book.douban.com/subject/30142261/</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>《长日将尽》
+冯涛先生的译文实在是棒   这文体干净 整洁  到位 令人难忘  在冯先生富有修养的译笔下  将英国管家的那饶舌不尽  欲语还休 却又典雅含蓄  内持外敛的绅士调子  尽致淋漓地再现了出来  且不论译文是否精确可信  就是读这样雍容的文字也是一种享受</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3936,7 +4344,11 @@
           <t>https://book.douban.com/subject/36909381/</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>太幽默了兄弟们，不知道的还以为蜘蛛出十宗罪续集了。白虎换妻催眠通奸样样俱全，新星是不是转行当三流地摊黄色读物出版商了。编辑和评委像圣甲虫一样最后堆出了这坨大的，估计当时看这本的时候也是欲仙欲死，忍不住轻哼了起来，对吧？</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3963,7 +4375,11 @@
           <t>https://book.douban.com/subject/26899538/</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>高潮时间太长也是蛮累的</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3990,7 +4406,11 @@
           <t>https://book.douban.com/subject/1008357/</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>关于四大名著，我永远找不到我正在看的版本，壮哉我大中华盗版</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4017,7 +4437,11 @@
           <t>https://book.douban.com/subject/10738023/</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>我新译的书。</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4044,7 +4468,11 @@
           <t>https://book.douban.com/subject/10560798/</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>那么微妙而难以言说的感受，他似乎很轻松就精确地写出来了。看毛姆的书很「止痒」，因为内心肿胀之处他一一帮你力道妥贴地挠到。但也易给人偷懒的依赖，因为已经有他帮你了嘛。</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4071,7 +4499,11 @@
           <t>https://book.douban.com/subject/1192090/</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>大刘再加强一下文学修养就好了，答应我，不要再YY白衬衣白牛仔裤的女神了好吗</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4098,7 +4530,11 @@
           <t>https://book.douban.com/subject/4908885/</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>道德判你死刑，哲学证你无罪。</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4125,7 +4561,11 @@
           <t>https://book.douban.com/subject/35562153/</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>一口气读完。中国都市现实主义题材小说总是两个极端，要不就是非常写实，但是缺乏故事的大张大和，读着读着就感到兴趣乏然；要不就是剧情狗血，很刺激，但其实离真实生活十万八千里。《我不是废柴》能在生活纹理和激烈矛盾冲突上做到完美的平衡是非常难得的，在此之前我只在六六和阿耐老师的作品上看到过这样的2合1的呈现。</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4152,7 +4592,11 @@
           <t>https://book.douban.com/subject/37053969/</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>在读过埃莱娜·费兰特和上野千鹤子之后的重读，这本书令我感到另外一种删繁就简、锐不可当</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4179,7 +4623,11 @@
           <t>https://book.douban.com/subject/35218475/</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>因为没去上班，经理直接杀到家里，爸妈在一边敲门催促妹妹在另一边边敲门边哭，这什么人间疾苦。</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4206,7 +4654,11 @@
           <t>https://book.douban.com/subject/36628430/</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>读起来很轻松的短篇集，最喜欢《时间魔法师》那一篇，很温情，如果可以像未来那样遇到了童年的自己，我想对她说，「抱歉，把你的人生过成这样」</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4233,7 +4685,11 @@
           <t>https://book.douban.com/subject/1057244/</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>初中的时候读边城读到emo泪目，现在我真是读编程读到泪目。。。</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4260,7 +4716,11 @@
           <t>https://book.douban.com/subject/6781808/</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>很感人的书，尤其是最后几页。我想以后我要是有孩子了，我要让TA在10岁的时候读这本书，让TA看到人与人的温暖和理解，学会对于“少数人”的包容和同理。这世上很多的罪恶，都来源于多数人对“少数人”的暴力。</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4287,7 +4747,11 @@
           <t>https://book.douban.com/subject/35494160/</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>“我是可怕的太空怪兽，你是漏水的太空液泡”</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4314,7 +4778,12 @@
           <t>https://book.douban.com/subject/30259153/</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>生的世界极尽讽刺挤满了小人物的不幸和个体的悲伤，反而是死后的亡灵之地在一片混沌的虚无中展现出人性的真善美。肉体消逝方能摘下面具洗尽铅华，两手空空的游魂没有欲望没有诱惑，只余一颗心脏挂在树上砰砰。
+很久没有这样在晚上一次性看完一本书了，眼睑开始跳555</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4341,7 +4810,12 @@
           <t>https://book.douban.com/subject/36952612/</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>愿意花钱买下这本书的原因是因为刷到一篇公众号谓其“叙诡佳作，全程无尿点，结局很高能”。而且我注意到该书作者长江俊和是著名的伪记录恐怖片《放送禁止》的导演！“伪记录”“反转又反转”“叙诡”，我直接一整个栽进去。结果栽了个狠的。。。。。。不至于说是“全程都是尿，结局一线天”，但我全程的心路历程就是“不会是...吧，woc还真是！不会是...吧，woc居然又是！最终反转肯定很牛...woc尼玛就这啊”。伏笔我只能说“跃然纸上”。不知是我看的叙诡过多了，导致很多套路都能猜到，还是这本书的诡计真的只能到此。
+        全书我没有想到的只有凶手如何处理的尸体，以及如何在豆瓣斩获8.0的高分</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4368,7 +4842,12 @@
           <t>https://book.douban.com/subject/37000496/</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2024#408
+超神之作，毫无疑问是法庭推理的至高杰作！比前面三作都更加精密的布局和节奏，双线叙事中的明与暗的交锋写的跌宕起伏。omg我不敢相信我已经6个小时没有看艾迪弗林了，还要再等多久才能看到第五本！</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4395,7 +4874,11 @@
           <t>https://book.douban.com/subject/24531956/</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>自然记得从小学到高中的暑假，坐在空调房间的地板上，一边吃西瓜一边沉浸在魔法世界的时光，记得高中时熬夜刷题的间隙，吃一碗泡面，看一会死亡圣器，枯燥的晚上也充满幻想。再见，我曾经心心念念想去的霍格沃兹。</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4422,7 +4905,11 @@
           <t>https://book.douban.com/subject/36985269/</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>在小说《斯大林格勒》中，斯大林、希特勒、戈培尔与墨索里尼等是直接作为小说人物登场的。詹明信认为，通过这些人物，格罗斯曼在进行着全面的极权主义分析。“但格罗斯曼的极权主义不是西方20世纪50年代自由主义者的极权主义，也不是汉娜·阿伦特的极权主义。对于格罗斯曼来说，极权主义当然以强制和剥夺自由为特征，但他关注的是权力动员和生产的动态。即使在集中营制度中，他着迷的是（扭曲的）生产力。尽管他主要将极权主义这个词与法西斯主义联系起来，但他显然被斯大林主义和纳粹主义之间的相似之处困扰着。这个想法在书中坦率地表达了出来。”</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4449,7 +4936,11 @@
           <t>https://book.douban.com/subject/36884862/</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>和《奥丽芙·基特里奇》一样的结构和风格，也在一定程度上承接了《我叫露西·巴顿》。组成露西回忆的那些人们，在世界某个角落，过着彼此独立但又互相交织的生活，而露西也同样在他们的人生回忆里成为注脚。有时难免会好奇，我们的一生，在经历自己的故事时，于其他人的视角里又会充当怎样的过客；与此同时，也很想知道，被我们观看的他人剧目中，掩藏了多少无法被探知的悲伤底色。在这9个由普通人生组合而成的故事里，我窥见了很多种可能。</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4476,7 +4967,11 @@
           <t>https://book.douban.com/subject/20441957/</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>余华的作品从来都是中途毫无其他书籍穿插的一口气读完，这本也无例外，读完最后一行合上书本时，窗外吹来一阵秋风，冷得哆嗦了下，脑海中还在浮现着书中种种情节，只觉这阵风来得真巧，恰似上部的苍凉，下部的荒唐。</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4503,7 +4998,11 @@
           <t>https://book.douban.com/subject/35216559/</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>這裡不像微博，我就敞開說了，鄭執教會我們的是不要害怕寫垃圾，去寫他媽的垃圾，因為正是垃圾做你的墊腳石，讓你有朝一日一飛沖天一鳴驚人的，服了娘哎啥也不說了，這本事二零年之前都看不出來，今天大家才知道一點不比雙雪濤弱，東北文藝復興三子是真的</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4530,7 +5029,11 @@
           <t>https://book.douban.com/subject/4908872/</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>游荡在都柏林的少年乔伊斯。《伊芙琳》面对出海航向阿根廷的拯救命运，与一九零零面对陆地新生活时具有相似的恐惧，是的，相似，《何其相似》中，凡事不顺的愤怒者法林顿殴打儿子时，被打者的一日崩毁的处境与父亲何其相似。乔伊斯描述都柏林上空的《一小片阴云》，《两个浪汉》微弱的金币之光只是信徒眼中卑微的希望，在《泥土》中，玛利亚蒙眼摸到的泥土，也许意味着对死亡的触摸，而祈祷书则意味着人们愿意选择救赎。除了《姊妹们》，其它故事并没有出现真实的死者，在末篇《死者》中，人们处在愉快、感动、欲望、满足、成功、健康与含有爱情的夜晚，一切似乎是幸福的，但死者却并未缺席，生者易逝而死者永恒，小说的结尾如大雪降落在都柏林，覆盖了这本书，乔伊斯的观察与怜悯为爱尔兰着上颜色。</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4557,7 +5060,11 @@
           <t>https://book.douban.com/subject/36782247/</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>我个人超爱的一本推理小说。你也许没听过Harry Dolan，没听过The Last Dead Girl。没关系，可以给自己一个三天读完、大哭一场的机会。</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4584,7 +5091,11 @@
           <t>https://book.douban.com/subject/1019568/</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>这书我看得特慢，只要出现一个地名我就想在谷歌地形图上给找出来，然后细细从战略层面揣摩用兵之道。特别是街亭之战，光在地图上找到街亭这个屯兵的小谷道就花了不少功夫，刚开始始终想不明白这个离汉中十万八千里的地方到底哪儿重要，后来研究了下才知道古时天水通长安的道路并非沿渭水河谷顺流而下，而是走官陇古道，街亭正处于古道的咽喉之处，蜀丢街亭就意味着把背后留给了魏国，腹背受敌，命都难保。总之这本书值得对着地形图细细揣摩，尤其是诸葛亮六出祁山那段。</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4611,7 +5122,11 @@
           <t>https://book.douban.com/subject/30294357/</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>读到了女性独立自主的重要性。男女之间的情爱，折磨人，又往往没有好结果。这些故事的内核，到今天也不过时，仍然真实得刻骨。</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4638,7 +5153,12 @@
           <t>https://book.douban.com/subject/1089243/</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>那一天我二十一岁，在我一生的黄金时代。我有好多奢望。我想爱，想吃，还想在一瞬
+间变成天上半明半暗的云。后来我才知道，生活就是个缓慢受锤的过程，人一天天老下去，奢望也一天天消失，最后变得像挨了锤的牛一样。可是我过二十一岁生日时没有预见到这一点。我觉得自己会永远生猛下去，什么也锤不了</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4665,7 +5185,11 @@
           <t>https://book.douban.com/subject/5337254/</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>评语： 如果所有小说都这样好看 我就再也不上网了</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4692,7 +5216,11 @@
           <t>https://book.douban.com/subject/1084336/</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>十几岁的时候渴慕着小王子，一天之间可以看四十四次日落。是在多久之后才明白，看四十四次日落的小王子，他有多么难过。</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4719,7 +5247,11 @@
           <t>https://book.douban.com/subject/37013775/</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>一个家庭的暗影。暴戾、冷漠是传染病，无人幸免。辽京写出中国式家庭最普遍的“传染病”，缺乏情感教育，掩饰情感又假装孝子贤孙。“在这个家里，任何细腻的情感都不能显露人前，那会让在场的所有人感到尴尬和羞耻……”</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4746,7 +5278,11 @@
           <t>https://book.douban.com/subject/35695541/</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>看完终于明白，为什么之前采访时，杨本芬奶奶会对她的女儿们说：不要结婚。她在婚姻中收获的痛苦、伤害、冷漠，远大于快乐幸福。而当初那个那么想读书的女孩儿，却在时代洪流中只有结婚这条路。由此觉得，当下时代，即便女性有压力，但也可以不婚和离婚，实在是好。</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4773,7 +5309,11 @@
           <t>https://book.douban.com/subject/26954760/</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>听说读完这本书的人，都辞职了。我的领导看到我手里的书，如是说。</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4800,7 +5340,11 @@
           <t>https://book.douban.com/subject/34990839/</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>陀思妥耶夫斯基不能多读，尤其是读博士的时候。本来就抑郁，越读越抑郁，读着读着就从地下室走上了天台。</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4827,7 +5371,11 @@
           <t>https://book.douban.com/subject/2035162/</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>生命有许多种形式，有些人追求物质上的富足和崇高的社会地位，他们需要最好的派头，房屋需要最时尚的装修，需要最入时的画和最流行的家具做装饰，外表的浮华和笃定，他们认为人活着就必须工作，而且还要有能够赚钱和体面工作。而拉里，正如作者所说，他是脱俗的麟凤的光辉形象，他以追求精神富足和自我完善为人生的目的，而工作只是一种使自己得以生存的微不足道的辅助工具。伊莎贝尔和拉里是这两种生活的极端形式，而有些人则夹杂在这两种形式之间。我们无法断言什么样的人生才是应该有的人生，就像没有人能够认清真正的上帝，但是也许前者只是在别人走过的路上一直不断重负着乏味无聊而嘈杂的历史，而后者，则拥有真正属于自己的美丽人生。</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4854,7 +5402,11 @@
           <t>https://book.douban.com/subject/26905337/</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>莫言对语言的运用实在是厉害，看钱雄飞被凌迟的那一章看得我心都发颤…读的第一本莫言，好的远远超出了我的想象</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4881,7 +5433,11 @@
           <t>https://book.douban.com/subject/10757938/</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>说男人是孩子，不过是给男人一个台阶，总不能直接说十个有十个都是自私又懦弱吧，而女人呢，要么心甘情愿被骗得义无反顾，要么就是对人对己残忍至极，所以男人可恨可鄙，女人可怕可叹</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4908,7 +5464,11 @@
           <t>https://book.douban.com/subject/36727285/</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>当一个名人、伟人写出毫无逻辑的文章时，评论就是独特、有个性，通假字。而我儿子写出同样无逻辑的作文时，评论只有“重写”</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4935,7 +5495,11 @@
           <t>https://book.douban.com/subject/36584894/</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>尾鱼的故事没得说，神话、历史真真假假，虚实难辨。但我不喜欢的是尾鱼笔下的女主明明都很强，很能打，叶流西或者聂九罗，是可以打到取人性命的那种程度，干嘛还非要着重描绘甚至强调他们白瘦的外形，《西出玉门》里写过好多次西姐的腰多细，这本书里也是，说聂九罗，一米六六六七，九十多斤，多么纤细。我只能说，这种体型现实中非常弱不禁风，能被风刮跑一点没错。拜托，这还和妖魔鬼怪打架，这种身材体型打起架来就像绿巨人甩洛基一样🥲</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4962,7 +5526,11 @@
           <t>https://book.douban.com/subject/37017209/</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>可以说是截止目前普西的所有小说里，我最喜欢的一本。每个人物都有血有肉，所有角色的智商情商都在线，尤其是书中的三位女性，虽然性格不同，但都聪明果敢，毫不畏惧。即便是一心想要复仇的两兄弟（其实这是小说中命运最悲惨的两个人），也不会让人产生反派的刻板印象。作者将心理学和精神分析融入了悬疑故事当中，情节略复杂，但读起来很过瘾。</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4989,7 +5557,11 @@
           <t>https://book.douban.com/subject/37082629/</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>因为熬夜看这本导致早上睡过上班迟到两小时 anyways this is youth</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5016,7 +5588,11 @@
           <t>https://book.douban.com/subject/1039487/</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>厉害的作家会把物件运用地天衣无缝前后贯通，乍看是有趣的东西，结果会成为引导情节的梗。罗恩的魔杖是这样，会飞的汽车是这样，里德尔的日记也是这样。罗琳阿姨受我一拜。</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5043,7 +5619,11 @@
           <t>https://book.douban.com/subject/30414743/</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>适合历史细节控阅读 另外正文中穿插注的阅读体验不好…</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5070,7 +5650,11 @@
           <t>https://book.douban.com/subject/36971608/</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>对主线故事是否崩坏有点隐忧，其实一开始就觉得的穿越之后和老丈人做基友总觉得有种怪异的感觉，但又讲不清楚哪里不对劲，这种不适在主角把新生的未来老婆抱在怀里的那一刻到达了巅峰。</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5097,7 +5681,11 @@
           <t>https://book.douban.com/subject/27104286/</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>每一篇都让我觉得此生难熬。就像是无数个夜晚里关掉电视后的那一分钟。</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5124,7 +5712,11 @@
           <t>https://book.douban.com/subject/35335514/</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>看到有人说余华为什么不写都市，甚至于说中国作家在城镇化的大环境下不与时俱进。拜托，你让余华写，他也写不出啊。个体和写作经验的累积就不是一个方向，能处理的好的话，还用的着你说？青年作家有写都市与城镇的，只是格局很小，你没看过但是不代表没有。（看完只是感叹余华对小人物真是热爱，文城永远无法抵达，林祥福即使找到了小美，也无法相认。）</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5151,7 +5743,11 @@
           <t>https://book.douban.com/subject/36462621/</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>看《黑牢城》了解日本武士也就图一乐，真要看主公与家臣、家臣与家臣间的扭曲关系，还是得看横山秀夫笔下的警察组织，乐死。说真的，我每次读横山秀夫的警察小说时，看到那些跋扈得都快能让警察喊爹的记者，再联想一下国内如今的警媒关系，简直有一种在阅读玄幻读物的感觉，绝了。横山秀夫确实有把看似写不成推理故事的素材写出悬疑感、推理感的能力。全书最喜欢的是《假面的微笑》，人物情绪充沛，前后呼应做得也好，是很精致的短篇，我甚至一度在想，这个故事中的一些细节或许能佐证刑事责任年龄的存在意义。《密室的漏洞》中金雕故事的象征意味也很棒。整体上个人喜好排序是534261。又：跟2013年的那版简中对照了一下，这本的标题作把所有“tw”前面的“zg”给补全了，也对一些可能引起误会的句子做了巧妙翻译，还是挺聪明和谨慎的hh</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5178,7 +5774,11 @@
           <t>https://book.douban.com/subject/20428302/</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>我们没有失明，却在做着全世界都失明之后的事情。</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5205,7 +5805,11 @@
           <t>https://book.douban.com/subject/26253699/</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>不论文学价值，主观讲好看程度的话，除了《冬夜》，其他几乎都不好看。中国人那点事儿，尤其是风月场交际圈的，「人」气都要溢出来了，闻多了就腻就恶</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5232,7 +5836,11 @@
           <t>https://book.douban.com/subject/1082334/</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>这本小说，曾经很风行，但时代和政治烙印太多，从整个小说的文学价值来说，没有太大意义。不推荐。盛名之下难符，它算其一</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5259,7 +5867,11 @@
           <t>https://book.douban.com/subject/35049755/</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>读完，心脏突突跳地写书评。我一个静息50多心率的人写到了70多，索拉里斯的海知道我醒着。</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5286,7 +5898,12 @@
           <t>https://book.douban.com/subject/36998357/</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>妻子是个仅供凭吊的工具人
+死了还得被一厢情愿的窝囊男深爱</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5313,7 +5930,11 @@
           <t>https://book.douban.com/subject/10564071/</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>我来浓缩一下这本厚厚的书---在历史的车轮面前，我们都是螳臂当车的歹徒。</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5340,7 +5961,11 @@
           <t>https://book.douban.com/subject/36864734/</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>完蛋，再一次被维勒贝克折服，比《血清素》还要好。本书写于1998年，站在千禧年这个合适的节点，维勒贝克回顾六七八十时代，总结清算那些年人类的“绝对自由主义”究竟带来了什么。双线双男主叙事，一边照例是无法无天的“性解放”叙事，布吕诺的一生基本就是鸡鸡上长了个人；另一边则是超脱世俗一心向科学的米歇尔，这种极度反差和《血清素》里的“性与农业”如出一辙。最迷人的仍然是他的叙调，冷调，超脱，清晰，准确，像一个非人的生命体在掌握了终极真相之后，冷眼旁观可怜的人类在卑微的虚无命运中盲目乱撞。结尾突然科幻起来，时间往前迅速飞跃，看到最后一页哑然失笑，这大概是维勒贝克对人类未来给出的“百忧解”吧，这个结局让人笑后又想叹息。</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5367,7 +5992,11 @@
           <t>https://book.douban.com/subject/36982815/</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>期刊上看的。还行。他不试图写历史，写一墙美丽的血点子那种又惨又美的故事的时候都还凑合。我还是好期待他写情色啊。他就没本事写大故事，资料太多写得就顾头不顾腚的。北鸢燕食记那都是啥啊。炒个莲蓉炒得故弄玄虚，你搁家熬过豆沙馅你都会知道那就是一勺油的事。</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5394,7 +6023,11 @@
           <t>https://book.douban.com/subject/30475757/</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>叙诡，整体还行，有个bug。熏被爸爸带走保奈美很紧张报警是不对的，她早知道谁是凶手的。</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5421,7 +6054,11 @@
           <t>https://book.douban.com/subject/36937097/</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>利用职务之便，又给自己出了本书……</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5448,7 +6085,13 @@
           <t>https://book.douban.com/subject/36977541/</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>先标记期刊中篇版：张悦然的写作一如既往缺乏实感（即便她有真事打底的写作），这种实感不来源于细节的缺失或者故事的真假（大家写东西多少都有虚构成分），而来自她的腔调；
+再标记长篇版：出人意料地，她删改了部分情节，小说的逻辑变得更合理，于玲变得更丰满，但这很快也毁坏在那场雨了，感觉这甚至是结构上的崩坏，俗套、刻板，小说再度飘了起来。或许她难以摆脱曾经写作畅销矫情故事的经验吧。
+题外话：最近读了林译村上，觉得她和双都受批着村上皮的林少华很大影响，尤其双，双有些短篇的桥段基本是村上汉化</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5475,7 +6118,11 @@
           <t>https://book.douban.com/subject/36784945/</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>契诃夫对景物与心境交映的描写实属一绝，以至于情节反倒显得平庸了。当我想到古罗夫和安娜，我想到的不是爱情，而是当他们坐在奥瑞安达教堂附近的长椅上那个清晨，下方海水永恒的低沉喧嚣；而当我想到工程师和小猫咪，我想到的也不是欲望，而是仓皇逃离的火车窗外，晚霞涂抹的暗红金色天空。在如此盛大的美丽面前，人类微渺的心思流转，到底显得黯然失色了。（也恕我直言，男女偷情终归就那么点事儿，再怎么写也不过尔尔。）</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5502,7 +6149,11 @@
           <t>https://book.douban.com/subject/36744522/</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>喜欢，但很难跟别人推荐的一本书，那天晚上在跳海车车跟我说了半天我却一脸“这有啥好看的”，读完之后能体会她当时应该有多无力了。毕竟，我们每个人都“拥有漫长的岁月，却仅仅像个十便士的发条娃娃般走了个过场。”读这本书很像你一个人坐在院子里，看着树上有一片叶子落下来了，接着冥冥之中有力量帮你把这落下来的几秒钟放慢了几十几百倍，你从中看到了生命不可言说的孤单、无奈和其他意蕴，而当别人问起，也只能说“我看到一片叶子落下来了”而已。</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5529,7 +6180,11 @@
           <t>https://book.douban.com/subject/3183775/</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>在我这并不是老舍写的最好的小说 却是他最不淡定最力透纸背的书写 秒杀绝大多数国仇家恨的奋笔描述 老舍太懂得中国人 一腔子对国与民的爱与耻波涛汹涌 他笔下却还是毫不掺水的炎黄众生相 他是伟大的。</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5556,7 +6211,11 @@
           <t>https://book.douban.com/subject/35815592/</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>退伍老兵比利得了战后PTSD，他被困在了过去。与新婚妻子缱绻相依时，他恍惚以同样的姿势回到战俘营；酒醉后呼出难闻的臭味，让他又回到死尸遍地的大轰炸现场的恶臭；女儿的婚礼在黑橙相间的彩条帐篷中举办，他瞬间回到当年黑橙相间的运送战俘的火车上。他被困在过去的创伤中无限循环，像普罗米修斯一样一次次被啄食心脏。过去和现在没有了界限，现实和幻想早已分辨不清。他从战争中逃出来，却死在了战后的创伤中。</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6663,7 +7322,11 @@
           <t>https://book.douban.com/subject/35192665/</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>这些年一直在等所谓同辈人能写出关于城市九十年代社会变革的故事  看完双雪涛感觉有了盼头 不再是上一辈作家那种土地乡情 或者城市小资 而是还没有完全经历完人生 像个早熟小孩一样用有点怀旧又悲伤 不停琢磨扑腾自己到底对于社会的姿态是什么 那些故事里的人物是工厂里爸妈的同事 上学时走失的同伴 街角火车上偶遇的路人 让我怀念起我的初中语文老师 他从来不布置命题作文 念我们奇奇怪怪的文字时说 真是少年不识愁滋味 为赋新词强说愁啊</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6690,7 +7353,11 @@
           <t>https://book.douban.com/subject/36937100/</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>怎么不算另一种“机器人之梦”呢？在世界这个巨大的机器人体内，我们都是一只一只小机器人。每一只小机器人也都有自己想守护的事。六个月也好，六十年也罢，希望这躯体如常运转，直至把心甘情愿的事做完。</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6717,7 +7384,11 @@
           <t>https://book.douban.com/subject/37087757/</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>翻译有一点大意了，第九页把四十二岁译成了二十四岁，可以说很不应该了。但是把The Unit 译为“归宿”很有想法，unit可以译为“单位”（旧版的译法）也可以译为“单元”，突出单位中的个体，“归宿”肯定是单元的归宿，而“归宿”必然不可能是单位。说回小说本身，它是《1984》也是《莫失莫忘》，它似乎也是《肖申克的救赎》。小说的各处充满一种体制化与希望/自由之间的张力，“单位”是一个人道主义的屠宰场，对每一个个体实行隐秘的暴力和规训，“个体”（单元）是案板上的鱼肉，是社会的无效用人，“归宿”不是一个地方，不是“外面”也不是“单位”，或许当爱上约翰内斯的时候，她就找到她的归宿了。</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6744,7 +7415,11 @@
           <t>https://book.douban.com/subject/26953294/</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>墙裂安利!金爱烂绝对有资格说奉俊昊不懂穷人，因为贫穷首先摧毁的就是勇气。真正的贫穷是“不会腐朽，也不会凋零”。金爱烂笔下的生活是一个巨大的谜:像是一个华丽的奶油蛋糕，一刀切下去，里面却空空如也，甚至藏着灾难。然而你却无处诉苦，还得为这个蛋糕付出全部。</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6771,7 +7446,11 @@
           <t>https://book.douban.com/subject/36463571/</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>年轻的特德姜去写《哈利波特》差不多就是这种感觉？在包含科幻的广义奇幻写作中，当西方作者陷入政治正确的泥潭并相互比拼魔法伤害时，这位华裔作家给这些纠结在各种政治正确元素的西方作家迎头一记痛击，让他们看看擅长考试的华裔作者是如何把叠 buff 变成一门艺术的。</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6798,7 +7477,11 @@
           <t>https://book.douban.com/subject/26278687/</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>后半本书说明白一个问题，他是个凤凰男。想告诉作者，既然想追逐名利就大胆追，别立牌坊，你是不会回去小镇的。你的那些朋友，并没有你说的那样惨，你也没比他们强多少。因为人生路还很长。</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6825,7 +7508,11 @@
           <t>https://book.douban.com/subject/36174516/</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>全书看完，最令人向往的居然是“死无葬身之地”，可是回过头想想，为什么“死无葬身之地”会让人向往，因为人人死而平等，真是讽刺。</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6852,7 +7539,11 @@
           <t>https://book.douban.com/subject/36739583/</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>消失的渴望隐约浮现在每日的思绪里。</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6879,7 +7570,11 @@
           <t>https://book.douban.com/subject/36909085/</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>水准大不如前三本。案子不是破的。是由郡主。欧阳老师。吴大六说出来的。这叫什么推理</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6906,7 +7601,11 @@
           <t>https://book.douban.com/subject/1827374/</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>事实证明，糟糕的翻译可以将神作变成屎。我说的不是这个版本。我看的是盗版。</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6933,7 +7632,11 @@
           <t>https://book.douban.com/subject/36952082/</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>“喜欢闷头徒步的人应该会喜欢”——没错。</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6960,7 +7663,11 @@
           <t>https://book.douban.com/subject/35482123/</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>“我为什么被妻子鄙视”的悬念贯穿全书，也构成了丈夫一半的内心戏，他感到委屈、不解、愤怒、恍惚、无意义，对别人也投去鄙视；他猜测妻子任何可能异样的动作是什么意思。但问题是，这是这个男人的独家叙事，在他的叙事里，妻子从未表达过自己的想法，他对妻子的关注除了美好的身体就是出身平民，是个打字员，教育程度比不上自己，根本不了解妻子的头脑。不过，看看女人的鄙视有多大的杀伤力，是多大的惩罚啊。多少感情里，男人只爱女人的身体，而不在意女人的内心和灵魂，如果还是如此，鄙视的故事还会继续上演。</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6987,7 +7694,11 @@
           <t>https://book.douban.com/subject/4881639/</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>达西只应天上有。人间处处柯林斯</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7014,7 +7725,12 @@
           <t>https://book.douban.com/subject/36939346/</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2024#388
+您猜怎么着？咱们老东京人起来就这么一出，先搞设定！嘿，您瞅这死而复生的通灵设定，那可真地道。还得配上点豪门家访，而且必须是老梗诡计。这加在一起以后啊，这小说就齐活啦！</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7041,7 +7757,11 @@
           <t>https://book.douban.com/subject/30286914/</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>总共花了34小时读完了这部被誉为“爽文”鼻祖的皇皇巨著。说实话看前半部分有点看不下去，看到后半部分渐入佳境。大仲马全篇布局之精妙，人物刻画之鲜明，剧情设计之紧凑，让人欲罢不能，通俗小说能写到这个地步也没什么好说的了。顺便补充了一下19世纪法国历史知识（虽然只是泛泛了解一下）。另外，大仲马全文也在传达一种积极进取的精神，我想只有真正的信仰才能让人经受住极端的痛苦吧。最后引用一下全书最后几句话作结：“这个世界上无所谓幸福，也无所谓不幸，有的只是一种境况和另一种境况的比较，如此而已。只有体验过极度不幸的人，才能品尝到极度的幸福。只有下过死的决心的人，马克西米利安，才会知道活着有多好”；“直至天主垂允为人类揭示未来图景的那一天来到之前，人类的全部智慧就包含在这五个字里面：等待和希望！”</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7068,7 +7788,11 @@
           <t>https://book.douban.com/subject/35617738/</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>wx读书大善人，不付费体验卡可读。姐弟仨的人生虽惨但有好多试错机会，进行多次反复试错后，最讽刺的结果出现了：妈死了最幸福……我们普通人没法试错的解决办法：1、不结婚；2、结婚试试，不行就离？这样吗？闹心呀。</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7095,7 +7819,11 @@
           <t>https://book.douban.com/subject/30177172/</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>本来不想打分，觉得自己未完全看懂。后来想起了这是怀揣着文学梦想的老马在失去工作后面对生活困窘在巴黎出租屋里写出来的，瞬间懂了。那时这老头心里还有一股和生活对抗到底的犟脾气，虽然不知道将来如何，可他依旧想做那只斗鸡，哪怕吃屎！</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7122,7 +7850,11 @@
           <t>https://book.douban.com/subject/1008145/</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>男人的西服、礼帽、衬衫、皮鞋。女人的旗袍、高跟鞋、草帽、丝巾。统统被夺了去，他们赤裸裸的、所有真实与不堪全摊开来。男人的怯懦，女人的刻薄。血液流动，肌肉收缩，蓝的静脉，红的动脉，白色泛黄的骨骼。这是唯唯诺诺的、自大的、逃避着的、自欺欺人的中国人。有人的地方就有政治。男男女女，也不过一场博弈。可是我们谁也离不了谁。还是冯唐坏水最多：他说希望上天安排张爱玲和钱钟书凑一对，看谁刻薄死谁！</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7149,7 +7881,11 @@
           <t>https://book.douban.com/subject/10555535/</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>很多人觉得读这本书是不该在意叙事的，因为文本的形式与结构之美已经大大超越了叙事的协调性，但实际上当我昨晚一口气读完这本书，完全沉浸在一种爱恨交织的神不守舍之中时，卡尔维诺以其独特的操弄文字的方式再次完成了一次自我建构，这是他最擅长也是最热衷于反复试验的领域。《如》是我目前规划看的最后一本卡的小说。我的阅读习惯是如果对哪个作者感兴趣，就会将关于他的所有可获得的书都找来，按出版时间一本本看下来，我这样做一是觉得可以按时间脉络掌握作者创作的思路和走向，二是可以通过这种走向挖掘各个时期间的关系。其实说到底，我觉得阅读某个作者的书归根结底是在阅读他这个人，他的文笔、逻辑、情感、观念以及所有的一切，最终都将指向“人”。我不觉得读者和作者是分隔的，虽然其中避免不了“想象的作者/读者</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7176,7 +7912,11 @@
           <t>https://book.douban.com/subject/36832095/</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>原著比网剧好看，影视化失败。</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7203,7 +7943,11 @@
           <t>https://book.douban.com/subject/6793573/</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>聊天聊到就又翻来扫了扫。朋友圈里的生活只有【怨气】和【光鲜】两种，而大多人大多数时候的生活无非是“一地鸡毛”。琐碎之事有时候就在不知不觉中把人的精力和锐气都消磨掉了，而可笑的是最后浮在记忆边缘的往往还就是些个琐事。有时候觉得自己脑容量变小了，想想，都是被些什么东西占掉了内存……</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7230,7 +7974,11 @@
           <t>https://book.douban.com/subject/26723423/</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>写这种风格写不过麦克尤恩，看似阴沉实则内涵一般。btw动物园那一篇里面提到的电影是格林纳威的《一个Z和两个O》，英文名为A Zed and Two Noughts，译者搜ZOO自然是搜不出这个电影，但不知道为什么不去问问原作者呢...真是一个谜</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7257,7 +8005,11 @@
           <t>https://book.douban.com/subject/6789551/</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>“一页书的价值只存在于它被翻到的时候，而后来的生活定会翻遍和翻乱这本书上的每一页。”</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7284,7 +8036,11 @@
           <t>https://book.douban.com/subject/36150423/</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr"/>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>作者最牛逼的地方是，在工作如此压榨、挤压他的时间时，仍能保持内心的敏感，写下如此坦诚真实的文字。不被工作消磨你的内心，不是所有人都能做到的。</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7311,7 +8067,11 @@
           <t>https://book.douban.com/subject/10555509/</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr"/>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>没有人跟我一样看不懂？</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7338,7 +8098,11 @@
           <t>https://book.douban.com/subject/26628811/</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>世间最可怕的报复，是《出售奇迹》里一个人在地上活多久，他的敌人就得在坟墓里活多久。世间最孤独的美，既是《巨翅》里自私庸俗的凡尘宁愿欣赏遭惩罚的不幸命运，而不懂身陷污泥的折翼之美；也是《海洋》里贮藏逝去时光的大海，只是单调乏味的陆上小镇难得一见的近邻。世间最残忍的莫过于《祖母》里让一切都落入一份账本，让生命成为债务，让不顾一切的逃亡成为突如其来的成熟的标记。世间最难忍受的是《超越》中面对死亡的孤独，压垮权利仅剩的欲望，让余生溺死在泪水里。</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7365,7 +8129,11 @@
           <t>https://book.douban.com/subject/36073906/</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr"/>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>口碑那么高，然而读起来只觉得炫技多于实质，虽然这么说可能刻薄了，可是除了“科学段子大串烧”之外我也不知道咋概括这本书给我的感觉。预设了某种人文情怀然后往里填充科学史人物，再勉强科学概念去类比人类的社会现实，就算是以文学表达的自由为其辩护，我也觉得作者所表达的意义是欠缺说服力的，就仿佛是搬运了太多科学词汇拼凑的诗，读完你只想问一句“有那个必要吗？” 我觉得没有。还是放过科学家吧，谢谢。</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7392,7 +8160,11 @@
           <t>https://book.douban.com/subject/35539713/</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>和中国人谈焦虑，瑞典人还差点火候。但有些小细节可借以表面治愈一下。</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7419,7 +8191,11 @@
           <t>https://book.douban.com/subject/27132345/</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr"/>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>天使视角，万物有灵，万花筒般流畅地切换，宛如《柏林苍穹下》，一个个被凝视的时间，有《天使爱美丽》般的古怪与可爱，也有《十一种孤独》的悲伤。可是上帝不仁，魔幻唯美的开始，终于被时间一层层剥落，走向《百年孤独》般的结局……爱麦穗儿的洒脱，希望鲁塔幸福，为米霞的一生叹息。主要故事之外，非人的时间与人的时间平行:天使的时间，恶人的时间，咖啡磨的时间，溺死鬼的时间，上帝的时间，菌丝体的时间，死者的时间，椴树的时间，洋娃娃的时间。个个独立而精彩，令人反思人的时间，永恒，生命，死亡，自我。更有八个游戏的时间，由地主手中的游戏展开，重构上帝。三线交错并行，和谐统一，宛如美妙的三声部奏鸣曲。高于上帝的声音，轻，快，准确，形象，繁复，无情又深情，窃以为几乎完全符合卡尔维诺的美学标准，伊齐多尔就有点像树上的男爵。</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7446,7 +8222,11 @@
           <t>https://book.douban.com/subject/2053249/</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr"/>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>我倒真读完这本书了，嘿不骗你，我倒真他妈的读完这本混账的书啦</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7473,7 +8253,11 @@
           <t>https://book.douban.com/subject/30316475/</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>阅读体验非常不好，不知道是不是因为翻译的原因，读起来感觉很不连贯，甚至有时候不知所云。至于侦探故事，并不玄妙。语言文字上的技巧，完全没有体会到。</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7500,7 +8284,11 @@
           <t>https://book.douban.com/subject/27125958/</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>有一个我给这本书打了四星，但这个宇宙里，我给了五星。</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7527,7 +8315,11 @@
           <t>https://book.douban.com/subject/36897341/</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>感谢作者刘鹤贤弟赠书。已经读毕，引人入胜。整个作品，像一个漩涡状的古老祭坛，将古典东亚和民族的苦难献祭上去，带着宿命论的悲壮，迸溅出血色碎片。清兵入关的前夜，没有力量可以去阻止宿命。伴随着清兵入关与古典东亚的解体，日本、朝鲜、越南纷纷与中原离心离德，一切都烟消云散。松锦之战殉国的战士，萨尔浒抗清牺牲的朝鲜依柳将军，甚至为了最后尊严刺杀努尔哈赤而战死的日本武士，或令人坠泪，或令惊叹。作者懂武，爱刀剑，像是古代的侠客。因此书中对冷兵器、早期火器、甲胄的细节描写十分详细、生动，交谈的语言也时代感十足，像是明清之际的活人，从书中走了出来。这是一个悲剧故事，是古希腊式的英雄悲剧，他向残酷的命运抗争，却最终被命运吞噬，消失在“亡天下”的天崩地裂之中，留下地平线上血色的残阳。</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7554,7 +8346,11 @@
           <t>https://book.douban.com/subject/6880158/</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>老早呢，觉得你没用场好，心底里不龌龊，人做得清爽。太有用场的人都是有点下作的。现在看看，没用场就是没用场。中国是个啥地方？做学问做三分，做人做七分。外国的人要紧的是发明这种机器发明那种机器，中国人呢，要紧的就是你跟我搞，我跟你斗。你不懂这个学问，你在中国就是个没用场的人。</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7581,7 +8377,11 @@
           <t>https://book.douban.com/subject/26757680/</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>11 “你用面纱遮蔽他人的窥探，自己也难以一睹世界之真实。”</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7608,7 +8408,11 @@
           <t>https://book.douban.com/subject/35114057/</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr"/>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>我最喜欢的是阿特伍德对那些欲望的描写，那些微小的欲望例如渴望涂抹指甲油，渴望手指插入面团的触感，提醒着我们何为正常生活，何为正常人。抹灭人的欲望，强制性压迫私人领域，不断伸手打扰你的生活，这些熟悉吗？</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7635,7 +8439,11 @@
           <t>https://book.douban.com/subject/27200257/</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr"/>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>都说初中去读这本书，我觉得未成年还是别乱读好吗？日本性文化和我国是有很大差异的，你能忍受自己的男友女友喝开水般的同别人发生关系吗？得了吧。看着20多岁的年轻人，迷茫，彷徨，当然，主要是淫乱，神经病居多，我在想，不放在那个自杀成瘾的日本社会，我实在是体会不到那种感觉。什么追忆青春了，什么得不到的骚动了，得到的有恃无恐了。统统都是一群神经病似的无病呻吟罢了。看到最后，无比同情绿子，男主到底算个什么玩意儿。</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7662,7 +8470,11 @@
           <t>https://book.douban.com/subject/25887933/</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>最纯净的成为混沌。最炽热的归于尘土。</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7689,7 +8501,12 @@
           <t>https://book.douban.com/subject/26382433/</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr"/>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>死了的人已经明白并得到解脱，而活着的人花了很长时间才想通，那些我没能告诉你的，那些你误会了我的，因为不想让你失望，为了让你开心，为了明天你依然愿意陪伴，我选择承担那些不属于我的负担，在我决定卸下这一切的时候，我希望得到你的理解和体谅，每个人来到世上，都有各自的修行，那些你想得而得不到的对我来说其实无关紧要，我关心在意的仅仅是明天你能否继续在我身边陪我成长跟我聊天全心全意关注我爱护我，哪怕我不能成为你的骄傲，也依然能拥有你对我无条件的爱和承诺。
+ 2015.7.16 农历六月初一，半年快乐。</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7716,7 +8533,11 @@
           <t>https://book.douban.com/subject/36035671/</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>母亲一直在控诉，我的女儿怎么会这样？可实际上母女俩何其相似，女儿不愿意随波逐流，发起向学校的抗议。母亲也不愿意随波逐流，执意把疗养院的老人带回家。很多母亲都会感叹自己的女儿不像自己或者说，怎么会是这样？但其实这样的女儿不就是你们亲手造就的吗？！</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7743,7 +8564,11 @@
           <t>https://book.douban.com/subject/30177174/</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr"/>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>我和马尔克斯之间，仿佛总是隔着许多道阅读理解题……</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7770,7 +8595,11 @@
           <t>https://book.douban.com/subject/36388449/</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>再也不想读东亚家庭文学了，尤其是母女题材的，永远是一堆算不清的烂账，苦水把我泡成一个畸形人。女人不走进婚姻，破事少一堆。女人的大部分苦难，以及母女间代代传递的苦痛，绝大部分都是由男女在婚姻中不平等的责任与利益分配造成的。</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7797,7 +8626,11 @@
           <t>https://book.douban.com/subject/30330181/</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>4.5；读阿城的文字可用“享受”来形容，鲜有生僻冷门字句，句子又短促，读来仿若“轻舟已过万重山”之感，很容易就驶入那个几乎纯粹以客观白描制造出的场景中去，是谓真正的语言功力即是如此；即使不分段的长体量段落，读来亦毫无滞涩，具有非常鲜明的中国古典文学的文本痕迹，他在《小说选日文版自序》中也提到《史记》、志怪、传奇、话本、明清小说等对自己的影响，尤其是他擅长的人物描刻，携有烟火气、草根气与侠气，正是其自谓“很古的东西”。最爱《树王》一篇，行为动作的描摹隐有武侠风，联想到后来阿城参与《聂隐娘》的编剧，一切都是有迹可循的。“我这才明白，我从未真正见过火，也未见过毁灭，更不知新生。”这段读到几乎能哭出来。三短篇皆为小人物立“传”，时代洪流中很快被湮灭的身影，说真话总是很艰难。</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7824,7 +8657,11 @@
           <t>https://book.douban.com/subject/26771719/</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr"/>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>读到90%处时，对这本传说中馆系列最好的一本失望透顶；读完全本，贯穿整个建筑的强大诡计让人惊叹不已。不枉我昨晚睡觉前读到一半整晚都在做噩梦。这才是建筑推理应有的程度啊，高于斜屋，不逊于占星术杀人魔法。某人发现密道逃出旧馆时，因震惊而动弹不得，当真相明了后这个细节非常震撼。</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7851,7 +8688,11 @@
           <t>https://book.douban.com/subject/36701790/</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr"/>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>一天内做流民、立屠刀、捡桃花、遭神弃，心里烂个窟窿晚上依然睡得着，因为明天太阳照常升起。</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7878,7 +8719,14 @@
           <t>https://book.douban.com/subject/35068894/</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>或许是因为读之前被剧透太多，或许因为我和欧维是同一种类型的人，仅仅从开头我就预见到了故事的走向。
+固执古板的男人在一次次口是心非中被人窥见其心底的温柔与善良，去死的计划因为被一个个麻烦牵绊而一次次搁置，说着麻烦表面极其不情愿却一次次伸出援手......
+我太理解欧维所有的心口不一，也理解他对规则固执的遵循，因为我也是这样的人。
+无论是否善于表达自己的情感，无论我们以何种方式爱着这个世界，我们都被这个世界爱着。</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7905,7 +8753,11 @@
           <t>https://book.douban.com/subject/1858513/</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>大多数人所成为的，并非是他们想成为的人，而是不得不成为的人。“责任”是最大的文明，也是最大的虚伪。</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7932,7 +8784,11 @@
           <t>https://book.douban.com/subject/25837845/</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>托尔斯泰想要一个答案；陀斯妥耶夫斯基觉得世界是一个谜，我们要做的不过是经历这个谜，并且知道它的某种不可解性。托氏尽力清醒地承受人生那不可理解的痛苦，陀投入痛苦之中游泳。在故事的最后，托写下在他的精神与那永恒痛苦的边界上的收获，也就是在尽可能深的地方获得的伤疤。而陀只能爬上岸去，把最后几滴水抖在剩下的稿纸上。（在最后一个故事中，他终于没有爬上来）</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7959,7 +8815,11 @@
           <t>https://book.douban.com/subject/1255625/</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>经典武学起于春秋，到北宋达到极盛，南宋有所衰落，元末因明教兴盛中兴。明代更有了东方不败等大师。但期间伽利略的出现已预示其衰落。康熙年间出现牛顿，梯云纵灭绝。道光年间出现卡诺，玄冰掌灭绝。尤其是力学定理建立后，内力和轻功全部消失，梯云纵这种只需吐纳练便可自带反重力系统的轻功彻底消失</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7986,7 +8846,11 @@
           <t>https://book.douban.com/subject/24859822/</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>感觉书籍开头有严重的误导，第一页讲的就是法官接收似乎是7年前见过的女性的邀请前往士兵岛，并且当时还是刻画了法官的心理活动，法官认为她的确是会买下孤岛的女人，但看完最后一章，我们都知道实际不是这样的，剧情刻意将凶手的特殊之处模糊掉可以理解，但写出来的东西应该都是事实，不应该以编造谎言的形式。不过，除了这个比较大的问题，小说还是对孤岛杀人这一事件描写的很好，大家彼此之间充满怀疑和提防，却又只能选择和大家抱成一团。尽管在高度紧张和防备之下，凶手却依然能在所有人眼前完成自己的计划，这种状态让人着迷！</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8013,7 +8877,11 @@
           <t>https://book.douban.com/subject/27107109/</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>想画一张人物关系图，失败了。</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8040,7 +8908,11 @@
           <t>https://book.douban.com/subject/36573581/</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>这个作者是个赤裸裸的抄袭者，无耻之徒，设计的游戏照抄福本伸行的漫画《赌博霸王传》等，特别是用木板挡鱼叉，房子现在里面有一个，关上门就没有等等，这些游戏都是一字不差的照搬照抄，欺负国内网文观众没看过日本漫画？这种行为还要脸吗？一群人称赞这本书牛逼，你要自己想出来的当然牛逼，抄别人的算个屁啊！</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8067,7 +8939,11 @@
           <t>https://book.douban.com/subject/37031012/</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>据说是最后一部，但是，以老爷爷老奶奶们爱折腾的性格，谁能保证得了呢？</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8094,7 +8970,13 @@
           <t>https://book.douban.com/subject/1009257/</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>这是最好的一本,
+读书时既快乐又满足  折服于罗琳谋篇布局的能力  我当时就说，只凭写作手法，她已经是一等作家。再加上故事，她是伟大作家
+读到邓布利多发派任务时 心里激动万分，太棒了，反击！而且各路英豪重出江湖   定让世人大吃一惊 大开眼界  Let&amp;#39;hit it</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8121,7 +9003,11 @@
           <t>https://book.douban.com/subject/36964254/</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>很好的译本，且装帧插图满分。读下来每篇都做了阅读笔记，那些名篇如《羊脂球》《项链》《两个朋友》《我的叔叔于勒》《公墓妓女》都有新发现，特别是《羊脂球》里高奴代这个角色。莫泊桑的小说写人写故事都非常精妙，而基础的部分则是写景，有些场景几乎需要动用读者所有的感官，通常除了视觉、听觉还得加上嗅觉等。《泰利埃妓馆》是本次阅读的惊喜，有趣的地方当然不仅仅是对“妓女的大胆描写”，而是在领圣餐回来之后，妓女们、夫人和客人们欢愉的场面，似乎有种天堂的气息，这篇少了那种可能具有的指代或隐喻，却有种干净纯粹的东西延续到最后。《一次野餐》可以跟《金鸡报晓》对比阅读，类似的还有《归来》和《奥托父子》这种悬而未决的结尾。后面几篇也很有意思，读到不一样的莫泊桑，比如《火星人》是篇科幻小说。</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8148,7 +9034,11 @@
           <t>https://book.douban.com/subject/36109148/</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>光是《刀痕》和《滔滔生活》便值得五颗星，东亚女性的隐忍与悲哀一览无余，但其他炫技章节减掉一颗星，不适合一口气读完，适合通勤、睡前、阳光下，逐渐消化，不然会有过度相似的腻歪感和太过晦暗的窒息感。</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8175,7 +9065,16 @@
           <t>https://book.douban.com/subject/35374447/</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>读完《请照顾好我妈妈》，有一章以“妈妈”死后的角度的写的，妈妈有和其他人有过一段暧昧的情感，在彼此危难时帮助过对方，但谁也不敢多往前一步。
+这一段我觉得是神来之笔，妈妈不仅是妈妈，还是“女性”，她有自己的情感需求，但却被世俗的规则所捆绑，有孩子，有丈夫（哪怕这个丈夫毫不顾家甚至跟别人跑了又回来），她终究没有去照顾自己的情感需求。
+这也让我想到《碎片》中费兰特写的另一本小说里，女主人公有了出轨的念头却迟迟未行动，而同时她并不知道原来她丈夫却毫无负担地出轨了很久。
+是什么东西压在女性身上呢？
+让我想起心理分析中说道，我们接受母亲就是母亲，甚至认为母亲最好是处女，而不是一个有着情感需求的正常人。
+最后还有一个小点，她死后不愿意和丈夫埋在一块，不想继续在他们家了，她累了</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8202,7 +9101,11 @@
           <t>https://book.douban.com/subject/36732204/</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>用儿童画式的插画，大约是如此残酷血腥的场景只有以这样的方式来缓解冲淡吧。马克吐温是幽默家，但幽默家的晚年阴郁如斯威夫特也是令人意想不到的，对人类的绝望已到了这样的地步。马克吐温或许也有着斯威夫特的影响，斯威夫特称人类为耶胡，马克吐温借撒旦之口说人类是虫豸，小爬虫，厌恶失望至极点。他是一百年前写的这部作品，可能时人读着颇有腹诽，但百年后再读，马克吐温对人类的厌恶真对，他是伟大的预言家。</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8229,7 +9132,12 @@
           <t>https://book.douban.com/subject/36975945/</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>今年本屋大赏获奖作，早前出了台版已经看过一遍，当时就被成濑的故事俘获，这次简中出版再看一遍，还是初看时的味道。这个故事，撒满了阳光，融化了青春，幸福着你我。
+我不敢想象有一个成濑这样的朋友会多幸福，那么……我要活到两百岁！我也要成为成濑这样的人！</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8256,7 +9164,11 @@
           <t>https://book.douban.com/subject/36886983/</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>这些故事是真的牛逼，不像现实世界的人类写出来的</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8283,7 +9195,14 @@
           <t>https://book.douban.com/subject/36512989/</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>为本作的豆瓣评分逐渐降低感到遗憾。磨铁宣传的失策导致一大批非目标受众涌入，白井设定系多重推理的过度复杂“发达”，迎头撞上了国内“不平衡不充分发展”的泛推理迷，风评一路走低也就不奇怪了。
+说回本作内容，推理精彩且完成度极高，伏笔埋藏从头至尾，多重解答一浪更比一浪高，最后的动机更是极致浪漫。很多读者质疑的漏洞其实只是设定问题，教众的知觉扭曲已然可篡改大脑接收的信息乃至无中生有，纠结于嗅觉视觉之类的旁枝末节大可不必。
+在故事情节上，本作之于白井此前作品亦有所突破。无论是借鉴真实事件的再创作，还是侦探、助手的执念与抉择，都可圈可点。当然，只是相对白井自己有进步，没有碰瓷别家的意思。
+最后感慨一句，在推圈内广受好评公认有准神作级别的作品，往往一破圈，风评便会走低，也许小众审美与大众审视的确不可调和罢。</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8310,7 +9229,11 @@
           <t>https://book.douban.com/subject/1071241/</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>我认为是《哈利·波特》系列最好看的一本了＾◇＾</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8337,7 +9260,11 @@
           <t>https://book.douban.com/subject/26739950/</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>在现在这个实名制的社会 已经完成不了这种犯罪</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8364,7 +9291,14 @@
           <t>https://book.douban.com/subject/36540441/</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>总体合格，但有几点：
+1.没完结就出书，贯穿始终的案子源头没破，新案还开个头，太不地道，要引人看下部也不必如此。
+2.将宋慈塑造得过于“完美”，小小年纪就有历经沧桑的稳重老成，沉稳早熟不可爱，仵作家出生初出茅庐就熟知官场棋局，写少年却没有少年气，配角都显得更加热血生动，只有一直坚持公道正义还算像个青年。大部分时候是一台冷冰冰的查案机器，冷静得不像个活人（最后一案有好一些了）。如果是这样性格和认知水平的人设，写什么少年呢？不如写成中年。
+3.有一些不合理点。如路人个个记忆力惊人，能记得四年前/半月前见过一面的陌生人还特征/脸上的小痣，一年前某一天干了什么……薛定谔的时间流动，一天办事无数，烧火做梅饼蒸尸等准备工作都得好几小时的验尸，一会儿就好了，路人都能看完全程，等人却一次能花2-4小时……</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8391,7 +9325,11 @@
           <t>https://book.douban.com/subject/25796120/</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>刘慈欣用百万字写三体，告诉我们宇宙是什么，时间是什么，博尔赫斯用几百字就做到了。</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8418,7 +9356,12 @@
           <t>https://book.douban.com/subject/27609563/</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>这什么呀！现在书也要刷分数了吗？分数那么高，看了简直侮辱智商。看了三分之一了就是一个绿萝在胡闹，宛如感情调解节目，憨厚宽容的男人和刁蛮任性的女人的故事。
+崔珏被写成一个疯子，所有的机关都是莫名其妙的，而且非常扯，整个院落的房子沉浮地面，竟然一点声音都没有？而且目的是什么？似乎就是为了多年后这场意外谋杀。简直就是拿着剧本倒推。</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8445,7 +9388,11 @@
           <t>https://book.douban.com/subject/1200840/</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>忍着终于听完，长吁一口气。“生活啊，你是多么的变幻莫测”一类无病呻吟听多了，李野墨语重心长的声音现在还赖在耳边不走。每当作者摆出振聋启聩的架势，等说出道理却不过是无谓与无根的感怀，我的耐心就被削去一层。写农村是书中最上乘的部分，有血有肉。但描述官场占据大段篇幅，人物如脸谱般单调羸弱，官话连篇难以下咽。我不赞成作者极力宣扬的价值观。人经受苦难不可怕，可怕的是对苦难的偏好。书中优秀的都市女性前赴后继拜倒在农村青年的高贵思想前，后者十分感动但是出于各种原因拒绝了她们。这是官宦千金爱上穷书生的翻版。出现一次是美好，可一个个都这样算怎么回事。作品的全知视角采取一种讲课口吻，文字似未精炼，叙述常重复，正如生怕学生忘了重点。假如你对自己的价值观延续千年没有十足把握，最好不要采取这么强势的叙述态度。</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8472,7 +9419,11 @@
           <t>https://book.douban.com/subject/35726357/</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>【A】一半闰土一半阿Q的王能好，一代中国农民的断代史。上承鲁迅下至李佩甫，文脉延续，近年最强农村农民题材小说。细节饱满程度惊人，每一处冷冷的描绘都真实可感。没钱治，拔掉氧气面罩就剩一分钟命；要撑起家，塞给儿子一笔钱后远走天涯；杀人犯流亡，却为故乡的雪落泪；父亲死，儿子不哭。靠零工活，靠抚恤金活，靠补偿款活。因癌症死，因痨病死，因酒精死。一幅农村众生相，一代蝼蚁生命册。冷静粗粝的语言裹住了最汹涌混浊的乡土思绪，是卑微，是浪荡，是孤寂。一张人物网，星罗棋布的尽是金钱、欲望、病痛、死亡。现代化的推土车铲灭乡村之前，这份终将被人遗忘的人情世故“史稿”，是多么可贵。最后，我们被无数个伏笔诱惑，渴求知道王能好的结局。原来，他死在疫情来临前，自由微醺地死掉。仿佛那之后的世界与他们无缘。但，他们解脱了。</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8499,7 +9450,11 @@
           <t>https://book.douban.com/subject/27001114/</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>奉劝各位，封面不满，可以不买，但凭什么仅凭个人审美就把连城一生最高杰作的最佳译本拉到一星</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8526,7 +9481,11 @@
           <t>https://book.douban.com/subject/36657407/</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>闹出这么大动静，原来只是把996改成了朝九晚五，地下铁变成了出租车。</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8553,7 +9512,11 @@
           <t>https://book.douban.com/subject/36061380/</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>很多故事压根没有结局，读来一阵唏嘘，职场、官场、人生，这么多年好像丝毫没有进步。</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8580,7 +9543,13 @@
           <t>https://book.douban.com/subject/35094680/</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>牛逼哄哄，去年我个人心中毫无疑问的NO.1作品。2019年流过的眼泪与燃起的愤怒，有53.5%都是献给这本书。阅读过程中很难不为诗织的无辜而动容，同时也更有一股冲动想亲自手刃某些人。本书直接撼动了社会法律，这就是纪实文学的意义。关于记者报道的职业良心，关于公权力将正义与邪恶尽数颠倒，关于人到底何以为人……法律的完善是靠一个个有血有肉的生命个体的牺牲换来的。
+感谢清水洁，让我们相信这个世界还有正义，让我们相信新闻媒体并不只是恶意引导舆论与掩饰事实的资本腐败走狗。 愿诗织安息，她只是一个很普通的女孩。
+如今简体版顺利出版，祝无删减大卖~特意来简体条目再评论推荐一次，因为这本书让我恨不得跪地切腹自我肢解也要向身边人推荐！</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8607,7 +9576,12 @@
           <t>https://book.douban.com/subject/36727284/</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr"/>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>吗呀 感觉不像余华写的，整本书都好癫狂呀，文笔也非常的癫狂，而且带有一定的恐怖色彩
+这本书苦难也很多，但是他的苦难更多是来自一种冷漠 就更可怕</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8634,7 +9608,11 @@
           <t>https://book.douban.com/subject/36862604/</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>猎龙那个故事不是最令我震撼的，但是我最喜欢的，那个白衣少年割断肢体，挖掉眼睛就为了刺那一剑，有这样的人在能让我相信尽管有那么多的黑暗，天人也不愿意灭世。</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8661,7 +9639,11 @@
           <t>https://book.douban.com/subject/36858242/</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr"/>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>太好看了哎妈，剧集改编处显得那么鸡贼小家子气，无能废物MI5康康，人一日克格勃，终生流浪诗人</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8688,7 +9670,11 @@
           <t>https://book.douban.com/subject/26340138/</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr"/>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>是我太久没读小说审美有问题吗？感觉超平庸啊…</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8715,7 +9701,11 @@
           <t>https://book.douban.com/subject/36910759/</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr"/>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>把近年读过的一些女性小说横向对比后，我发现真正好的创作不能只有无意义的愤怒。女性，或者应该说不仅仅是女性，而是所有在重压之下反抗的人类，必须接受自己充盈的愤怒，将其转化为力量，并学会如何控制并运用自己的力量。化身为龙，是因为向往着一种超越了自身的宏大生活，我们的命运，就是“在无意义的世界里，做一个有意义的人”。读的过程中，想起很多在人生道路上帮助过我的女性，那时我年轻，对这种帮助的精神意义浑然不觉，如今回看，才明白是那些瞬间，于生活烈焰的灰烬中造就了我。所以，全书我最喜欢的话大概是这一句：“你要照顾好自己。世界在变化，你要好好的。上床去吧，好好睡一觉。然后抬起头来看看天上，天空充满希望。你并没有你想的那么孤单。” 不管你是龙，是狗，是人鱼，是吸血鬼，还是只是一个女孩，请记住，你不孤单。</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8742,7 +9732,11 @@
           <t>https://book.douban.com/subject/2253380/</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>一个女人不爱一个男人的时候，他做什么都是错。他的诚实是古板，他的信任是冷漠，他的宽容是世间最大的罪恶。</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8769,7 +9763,11 @@
           <t>https://book.douban.com/subject/35330057/</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>是的，蒂赫，人类真正拥有的领域，正在以惊人的速度萎缩。任何一个时代遗民都愤怒地斥之为疯狂，然而世界已经不再属于他们这群假正经的自然人。在书之外我们同样失去糖和咖啡因，失去一丝不苟地组织语言的共识性，失去翻到100页以后看真相的机会和耐心。“写”到这里我已经为自己感到羞愧难当，但也没有一滴泪水可以淋湿纸面，因为它现在也只是一张屏幕了。</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8796,7 +9794,11 @@
           <t>https://book.douban.com/subject/3006581/</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>书是好书，但是，先前借阅的读者在书上加了批注：“他是无罪的，所以他是凶手。”我怒了！</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8823,7 +9825,11 @@
           <t>https://book.douban.com/subject/36800187/</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>不纵容自己的软弱，不纵容世界的恶心。</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8850,7 +9856,12 @@
           <t>https://book.douban.com/subject/37052490/</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>#2024 45
+八月初就读完了，昨天讲书会后我又翻了一遍。一直觉得黎幺是一个很神奇的作家，昨天还在跟同事说很好奇黎幺自己会怎么“讲”出来自己的书，在文字上很少有人能比他写的更得心应手，关于家庭的寓言，关于神话的再现，关于人物的内面，这些都可以在文字的神性中得到彰显。然而，讲出来可能又是另一回事，这又回到了说书人的时代。是的，说书人，也许黎幺就是文字的说书人吧，他假设了一切，假设了一个每个人都可能是舞台中心的世界，讲给我们说，这就是你的命运，这就是你的“日常”。</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8877,7 +9888,11 @@
           <t>https://book.douban.com/subject/36973915/</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr"/>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>枯燥繁冗的正文的精彩程度不及我看完剧情简介对其的幻想的十分之一。</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8904,7 +9919,11 @@
           <t>https://book.douban.com/subject/36710568/</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>译了整整一年，打个五星不为过^&amp;amp;^</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8931,7 +9950,11 @@
           <t>https://book.douban.com/subject/27115970/</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr"/>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>东野圭吾真是很棒的言情小说作者！</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8958,7 +9981,11 @@
           <t>https://book.douban.com/subject/36480385/</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>数据不足，无法给出有意义的评价。</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8985,7 +10012,11 @@
           <t>https://book.douban.com/subject/36953532/</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr"/>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>科幻界和所有“界”都需要更多的女性视角</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9012,7 +10043,11 @@
           <t>https://book.douban.com/subject/37055195/</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>第一本残雪，似乎有种西语作家的魔幻感。众生如堕迷雾中，故事里的每个角色都有一份平凡的工作，可是却每人皆有一番奇幻遭遇。是重审关系，是自我问询，是意象百生，是寻觅真爱，是回溯本源…线性叙述却又盘根错节，秉持自己的念头就读得问号连连，干脆一切放下，放任自流，于是如梦似幻，光怪陆离，尽现其中。</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9039,7 +10074,11 @@
           <t>https://book.douban.com/subject/36999238/</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr"/>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>看这些女孩的故事，真像看到了10年前的自己，真想狠狠打碎那些对女孩子的贬低和侮辱。</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9066,7 +10105,11 @@
           <t>https://book.douban.com/subject/36990997/</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>喜欢福瑟戏剧语言的读者或许会喜欢。意识流散文小说，见好就收的长度。文字及其携带的意识模糊了生死和代际的界线，在峡湾附近自顾自地流动。《出版人周刊》评论称其为“循环式幽闭的故事”，的确如此。</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9093,7 +10136,11 @@
           <t>https://book.douban.com/subject/37050143/</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>看到苏童写“她看见一个辉煌的世界拥抱了六十年的梦想”泪目了。只有她一个女性统治者站在了权力的顶端，无论后人怎么评述，她只有一座无字碑。</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9120,7 +10167,14 @@
           <t>https://book.douban.com/subject/36906327/</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>拿到书的时候就感觉不太对劲了，太薄了，看完果然果然有点失望
+    其实是一个犯罪故事，推理含量为0。剧情只能说太过平淡，各种戏剧冲突总能以一种机械降神的方式解决。最后的反转太好猜了，而且中二度爆表，“不要小看我们之间的羁绊啊！”
+    三位主角的感情转变也很草率，在书前四分之一的内容就已经转变结束了，后面直到结尾都没有变化，人物塑造还是有所欠缺
+    而且感觉作者对于地偶一直是一种负面的视角，但是最后又要强行上升一下，就感觉很割裂，应该是为了骗我们阿宅钱吧</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9147,7 +10201,11 @@
           <t>https://book.douban.com/subject/36497658/</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>头好痒要长脑子了</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9174,7 +10232,11 @@
           <t>https://book.douban.com/subject/1002299/</t>
         </is>
       </c>
-      <c r="G319" t="inlineStr"/>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>小时候读《笑傲江湖》也就看个热闹，不明白欲练神功必先自宫背后的映射，如今就业将近十年，在是是非非的工作当中才恍然大悟，其实葵花宝典并非什么难练的武功，只要横下心去自我阉割，舍了脸皮和尊严，没有什么得不到的。最难成就倒是令狐冲的独孤九剑，谁能耐住孤独在现实欲望的横冲直撞之下守住自己的精神家园，那才是真正的笑傲江湖。</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9201,7 +10263,12 @@
           <t>https://book.douban.com/subject/36540442/</t>
         </is>
       </c>
-      <c r="G320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>一提西湖，两具女尸，三日期限，四方势力，尽是五条人命。
+一介书生，二人挚友，三尺微命，四位好汉，道出无数辛酸。</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9228,7 +10295,11 @@
           <t>https://book.douban.com/subject/36366027/</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr"/>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>托尔斯泰真厉害，写这本书时他明明也没真正死过，但他好像完全知道死亡是怎么一回事。</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9255,7 +10326,14 @@
           <t>https://book.douban.com/subject/30294358/</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr"/>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>李安说张爱玲勇敢，”敢把女性的生理上的享受写入以如此父权、如此男性化的战争为背景的故事里。她是怎么能把这样一个主题放在如此巨大的画布上的？——那是那么小的一滴水，可它激起的涟漪却大得惊人。”
+我倒是很能理解张爱玲对masculinity的轻视的。你看他一脸仁义道德家仇国恨的，张口为国家做贡献，闭口为社会担责任。到头来连清清楚楚地面对自己的欲望也不敢。像她这种用肃杀掩盖无限深情的人，怎么能不去戏谑一番他的算计和自私呢。
+这种手法和心境，虹影也是懂的。她自传里的爱也好，不甘也罢，都是最后拍拍手起身，嘲讽的唾沫星子一口呸在那个男人的懦弱身上。
+但虹影站起身，款款走出来的神态有愤恨而无眷恋，竟少了很多让人回味的意趣。而张爱玲嘲讽masculinity就是嘲讽自己——怎么就，看上他了呢？</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9282,7 +10360,11 @@
           <t>https://book.douban.com/subject/36968596/</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr"/>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>1999年作品，是在完成小说马拉松《奇鸟》后的“休养”之作，叙事、结构、元素都完全在舒适区，纯熟丝滑，没太大惊喜，唯一的挑战是，这次是写女同性恋的故事，能明白村上想不断尝试新领域的心情，但不知道女同读者会如何看待这部小说。</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9309,7 +10391,11 @@
           <t>https://book.douban.com/subject/36560856/</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr"/>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>“我活着的每一天都会想念你，这想念直到我不会想了为止。”</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9336,7 +10422,11 @@
           <t>https://book.douban.com/subject/25887930/</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr"/>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>居然在注释里面剧透？！！翻译你过来我要和你聊聊共产主义</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9363,7 +10453,11 @@
           <t>https://book.douban.com/subject/10757940/</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>葛薇龙和乔琪乔是山腰上大宅子里一场苟合；愫细“爱的教育”不全，折煞了巴克教授；聂传庆是丧失了爱的能力，害苦了少女言丹朱；绫卿对父亲是不伦之恋；封锁是电车上吴翠远的异度空间；姚家那个“瓦窑”作不了美丽的打算；曹七巧是金锁锁住的一辈子；霓喜数度改嫁还是连环套一环套一环。还好有一对白流苏和范柳原，下场终于是好了，代价是倾覆了一座城。</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9390,7 +10484,11 @@
           <t>https://book.douban.com/subject/36504167/</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>又没写完！又没写完！又没写完！看得正入迷结果戛然而止！啊啊啊啊啊啊</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9417,7 +10515,11 @@
           <t>https://book.douban.com/subject/24748615/</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>还在读，感觉叶子农会是《遥远的救世主》里“柏林有个居士说他是极品混混”的那个柏林居士</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9444,7 +10546,11 @@
           <t>https://book.douban.com/subject/26210487/</t>
         </is>
       </c>
-      <c r="G329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>从第259页到第426页都是一个一个描写十位接力跑者怎样跑箱根驿传这个两百多公里的接力赛，并且叫人越看越想看下去。</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9471,7 +10577,11 @@
           <t>https://book.douban.com/subject/1080370/</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>没有人永远是少年，但永远有人是少年。你好吗，我很好。</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9498,7 +10608,11 @@
           <t>https://book.douban.com/subject/26295448/</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>【给作者跪下】当你对未来无知的时候，你只能以因果论的方式看待世界，于是你会对你的选择感到后悔，怀疑另一些选择可能更好——这时候你的痛苦是：你有自由选择的能力，但你的选择导致了一个你不愿意看到的结果。然而当以目的论的方式看待世界的时候，你看透了整个未来，你可以选择过程，但你无法选择终点——这时候你的痛苦是：你明知会有那样的未来，但你无法避免。就两者的效果来看，它们其实都导致了你无法选择终点的事实。</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9525,7 +10639,11 @@
           <t>https://book.douban.com/subject/25887912/</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr"/>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>沉默的人不说话则已，一说话就四五页止不住。特别喜欢陀氏小说中这些神经质般的疯言疯语。这就是所谓的“狂欢”？</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9552,7 +10670,11 @@
           <t>https://book.douban.com/subject/30359030/</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>十年间看了四五遍，每次都好像之前没仔细看过一样，大概这就是波函数在我身上的作用吧</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9579,7 +10701,11 @@
           <t>https://book.douban.com/subject/35710421/</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>开始读的时候就是惊讶的，因为虽然是这样的题目，但故事里半点旖旎之气全无，虽然描写极尽绚烂之能，但连风月都写得洁净清爽。然后慢慢读下去惊讶逐渐变成敬意，如果说许多短篇小说集所有故事靠同一个内核供给养分，那么这本的故事后面居然有一个宏大宇宙，这个宇宙就是生之赤诚热情与熊熊欲望——不仅限于食色之欲，是对生命的无限和辽阔的近乎于贪婪的珍惜渴慕，近乎于偏执和癫狂的坚忍勇毅。有几个画面读完之后格外清晰，抓着母亲做的寿司送进嘴里的小男孩，面对诘问始终用“鲤鱼”回答的年轻沙弥，仲夏之夜撷取少女一生浪漫的古怪少年，用同样名字反复呼唤对方的夫人与小舞姬，当然还有读到令我心旌摇荡的那个孤勇地向大海正中一直要游到游不动为止的小初——“如果前方是活着的不得已，那就直面起因，孤军匹马，一决胜负”。</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9606,7 +10732,11 @@
           <t>https://book.douban.com/subject/34808043/</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>最“诗意”的人最后居然是丁二，一个被所有人看不起的昏人，真是巧妙而动人的一笔。</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9633,7 +10763,12 @@
           <t>https://book.douban.com/subject/36447334/</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>这一刀会很帅
+太长了……长篇网文最后的结局就是重复</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9660,7 +10795,11 @@
           <t>https://book.douban.com/subject/5337248/</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr"/>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>乡愁也是有阶级的。</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9687,7 +10826,11 @@
           <t>https://book.douban.com/subject/36796806/</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>尹学芸最为纯粹的女性主义书写，其中女性角色的年龄跨度涵盖了人生的各个阶段。小城市这群特立独行的女性，生存的艰难悲壮，倔强执拗，她们以各自独特的方式面对这操蛋的世界。最爱《三只铁碗和三只汤勺》，欲买桂花同载酒，终不似，少年游。</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9714,7 +10857,11 @@
           <t>https://book.douban.com/subject/36062802/</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr"/>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>挺有意思的一本小书，封面非常可爱。挺喜欢《头》，对我来说马桶里出来个头还不算恐怖，恐怖的是除了女主，其他人都习以为常，无所谓。</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/豆瓣可视化/book.xlsx
+++ b/豆瓣可视化/book.xlsx
@@ -1149,10 +1149,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>这本书能有这么高的评分让人意外。-作者想写一个民族的史诗，文明的傲慢，和文明冲击下，一种生活方式的消亡，但落到文本上太乏力，没有写出深度。-人物过多但没有特点，不够鲜活也不立体，走马灯式一个一个出场又落幕。-赞叹每一个写作者都不容易，写完这样一本书付出了很多，这也是一个非常好的题材。</t>
+          <t>这本书能有这么高的评分让人意外。_x000D_作者想写一个民族的史诗，文明的傲慢，和文明冲击下，一种生活方式的消亡，但落到文本上太乏力，没有写出深度。_x000D_人物过多但没有特点，不够鲜活也不立体，走马灯式一个一个出场又落幕。_x000D_赞叹每一个写作者都不容易，写完这样一本书付出了很多，这也是一个非常好的题材。</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6239,11 @@
           <t>https://book.douban.com/subject/34778574/</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>评论区说乙一被捧杀江郎才尽的…这不是乙一16岁的作品吗？</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6269,7 +6270,12 @@
           <t>https://book.douban.com/subject/36975859/</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>金钱权力的游戏，让道德与法律已经模糊到了边缘。在争夺遗产的过程中，所谓的道德与法律界限变得模糊，或许在他们眼里，根本就没有法律与道德。雷德斯通家族成员为了争夺利益，在他们看来似乎是天经地义合情合理的，谁都不会承认自己在不断侵犯着道德和法律的底线。或许，正是这种道德与法律模糊边界的揭示，才是最为震撼人心的地方。
+《继承之战》无论是看成剧，还是读书，都很精彩。因为绝非只是讲述关于权力与金钱的家族斗争史，而是这个时代的注脚。</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6296,7 +6302,11 @@
           <t>https://book.douban.com/subject/36866221/</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>比较搞笑的是，我谷歌搜索了霍洛维茨的这出戏剧Mindgame，点开的第一篇评论文章就是伦敦剧院在2016年发布的对杂耍剧院上演的Mindgame的负面评价。其中一部分我真的忍俊不禁：“……我已经很久没在西区看到过这么垃圾的剧了。这部剧的曲折情节基本上是可以预料到的。霍洛维茨试图让人震惊和不寒而栗，结果却变成了一场彻头彻尾的闹剧——我最接近感到不寒而栗的一次是在中场休息时喝的可口可乐里的冰块。”‖另外我想问，有没有人统计一下这个系列安东尼到底用了多少次“无辜”这个词来形容霍桑？</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6323,7 +6333,11 @@
           <t>https://book.douban.com/subject/36978592/</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>无论喷子们怎么诋毁，文学巨匠终归是巨匠，魔幻现实小说出类拔萃，战争小说如《红高粱》如《战友重逢》，农民小说如《天堂蒜薹之歌》如《四十一炮》都很拿手。写作一些科幻小说也不奇怪，何况那是当代文学的黄金时代，20世纪80年代。</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6350,7 +6364,11 @@
           <t>https://book.douban.com/subject/36895890/</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>没想到带着记忆沉枷的莱维也有如此轻盈的时刻，像在读文艺版的莱姆，科幻外衣下，是温和的讽喻和警醒：理性一旦沉睡，怪物就会苏醒。好多故事都适可而止，好像他不忍想象一个比他待过的更糟的世界。</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6377,7 +6395,12 @@
           <t>https://book.douban.com/subject/37022254/</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>乔治·桑德斯最打动我的是他的真实，是情感与体验上的真实。这一点在《林肯在中阴》就已发挥得淋漓尽致，在那个虚实莫辨的舞台上，他让超自然的鬼魂传递出最真挚的情感，怜悯、恐惧、无私、迷茫、流恋交织在一起，诉说人行世间的百态。
+在这部短篇小说集中，桑德斯犹如一只变色龙潜入到生活的各个角落：那些活生生的人物就在你身边，或许你还能在他们身上发现一部分的自己。平平无奇的小人物有自己的小盘算，不动声色的母亲在心中燃烧着火一般的欲念，当shit hits the fan发生时普通人要如何面对？在反乌托邦的世界中，道德矛盾愈发尖锐。人性是复杂的，而爱总能串联起一切。桑德斯笔下的真实能剜下切肤之痛，也如一只探出来的温热小手，触碰你的心。</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6404,7 +6427,11 @@
           <t>https://book.douban.com/subject/27041533/</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>关于存在本身，关于人类的终极意义，关于每个人都无法逃脱的永恒孤独，关于爱情里难以解释的狂喜与厌憎，和终究无法避免的死亡。</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6431,7 +6458,11 @@
           <t>https://book.douban.com/subject/37078048/</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>史杰鹏新作写一军中小吏在晚唐两大顽疾藩镇与宦官的角力中如棋子一般无根无定的人世沉浮：虽勇武仁侠，却未立寸功；出淤泥不染，仍随波逐流；有一眼万年，无重圆破镜；若锥处囊中，难脱颖而出。但到底身处大唐遗风之中，能以仗义豪侠得歌诗传诵，因歌诗风靡得中尉擢升，继而引出李益许浑李商隐等传奇或历史人物，红线串珠般在传统叙事和现代情感中找到了某种契合。故而小说虽长，读来却极快极酣畅，乃有唐传奇打底及诸多中晚唐歌诗典故为骨血之故，颇有少年时看金庸时之快意。不过也绝非传统意义上的历史小说，与七分史三分虚之标准大相径庭，若要类比，倒是早年间横空出世却戛然而止的文侠小说更为贴切：文气与侠义齐飞，豪情共世情一色。</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6458,7 +6489,12 @@
           <t>https://book.douban.com/subject/36425102/</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>她在死气沉沉的村子里等待死亡，但是她打理好了一切，安置好了花花草草、母鸡、绵羊，在回忆里等待死亡突然发生了意外。
+      这个意外是甜蜜的，有个鲁莽的男人想要和她试试共度余生。接下来会发生什么事呢，那个被生活折磨，被前夫折磨的女人，会有什么样的故事？</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6485,7 +6521,11 @@
           <t>https://book.douban.com/subject/37109641/</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>被书名吸引结果更喜欢第一篇小说，那种被现实压的喘不过气来的感觉中间插一下主人公的回忆再继续爆发，有一种平静的疯感，不知道该怎么办所以戛然而止吧……第二部也是熟悉的感觉，不过安德森的选择困难症看的心焦，而且一般人也碰不上谋杀案，结果只剩下心焦。</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6512,7 +6552,15 @@
           <t>https://book.douban.com/subject/36528801/</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>俄罗斯文坛版“弗兰肯斯坦”。长篇小说是智力的游戏，结构的回环、时空的跳跃，跨度大却严密，阅读爽感拉满。作者实在是幽默，从一开始就有很多“金句”令人忍俊不禁，而第十九章电视台直播直接把戏剧性推到高潮，光看文字就笑得不行了，改编的戏剧应该更好笑吧（好想看啊）！书中的“我”有一种旁观者的疏离感，什么都不在乎，什么都能接受，这种略带“虚无主义”气质的角色总是很容易吸引我……
++“我仇恨这讨厌的、令人窒息的生存竞争，它不给人留下丝毫的精力与憧憬，以便为实现自己的理想而奋斗。”
++“在翻书架的时候，我比平时更尖锐地感受到人生的短促：要知道，这些书的大部分我再也不会读了，即使我忌酒，不再同女人幽会，也不再写作——这首先要抛弃，一味地读，读，读……即使这样，不到一千册，就会被死神追上！”</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6539,7 +6587,11 @@
           <t>https://book.douban.com/subject/36711035/</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>死忠粉还是要打五星的！</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6566,7 +6618,11 @@
           <t>https://book.douban.com/subject/36809032/</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>好大的一盘棋。“不可告人的秘密”到底有多“不可告人”，如果最后让我失望我要给作者寄刀片😒</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6593,7 +6649,11 @@
           <t>https://book.douban.com/subject/36506706/</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>哀戚又明亮。（没人打分自己打一个）</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6620,7 +6680,11 @@
           <t>https://book.douban.com/subject/6265745/</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>银河系最好看的小说没有之一。（严重怀疑那些给三星的人的智商）</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6647,7 +6711,11 @@
           <t>https://book.douban.com/subject/36206462/</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>初读很新鲜，但越到后边越对纯粹描写崩坏心理的诗意抽象不能感同身受。</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6674,7 +6742,11 @@
           <t>https://book.douban.com/subject/26698660/</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>我本来以为推荐言过其实了，尤其书封，什么平均三个通宵读完，哼。嗯，书封确实错了，我用一天一夜读完了。</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6701,7 +6773,13 @@
           <t>https://book.douban.com/subject/36685230/</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>惊人的进化!如果说第一部是因其类型创新而给五星，这第二部是因为它完全可以称得上一本&amp;#34;五脏俱全&amp;#34;的推理小说而给到五星甚至六星。
+跨越漫长而巨大的时空的11个&amp;#34;怪屋&amp;#34;，再次被缺胳膊少腿的被蟹教串联，比前作更加合理、顺畅且巧妙。最关键之处在于若干&amp;#34;怪屋&amp;#34;(以及生活在其中的人们)之间还彼此关联、甚至&amp;#34;互为因果&amp;#34;，这一点又暗合蟹教的教义，能做到这种高密度、高精度的伏笔回收和大线索串联真的非常难得。除大主线(水车小屋、公寓改造)之外，&amp;#34;连接房间的纸杯电话&amp;#34;这个相对独立的支线也非常精彩，谁能想到勾起无限童年回忆的纸杯电话竟被用作这么变态的勾当……三观尽毁。
+另外，在第一部单调的访谈式文本基础上，综合采用报道、古书、儿童日记等多种文本形式，小说性极大提升；最后附带的两层反转在填坑的同时让读者坠入更深黑暗。</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6728,7 +6806,11 @@
           <t>https://book.douban.com/subject/34799583/</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>这本书太好看啦！马可瓦尔多也是一只社畜,是一个搬运小工，要养活好吃懒做的老婆还有淘气的宝宝，一家人住在地下室里。但是他却有着一双不是很适合城市生活的眼睛，在霓虹灯、广告牌与林立高楼间，他看到了摇摇欲坠的树叶，看到了悄悄冒头的蘑菇，看到了弯弯圆圆的月亮，看到了自然的暗暗生长。他是卡尔维诺笔下一个周星驰式的人物，在一场场关于城市的即兴短剧中，他总是有着自己的小欢喜，荒诞却可爱，而生活，也始终挣扎着向前——终于带着一家人从地下室搬到了阁楼！</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6755,7 +6837,11 @@
           <t>https://book.douban.com/subject/36284336/</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>小金人就吸收并扮成海野，然后毁尸灭迹、混入人群、比翼双飞不就完事了嘛。想破脑袋也想不通它们后面花里胡哨的操作是图啥。咋滴你俩抢本局mvp啊？</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6782,7 +6868,11 @@
           <t>https://book.douban.com/subject/36995035/</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>别的不说，您这封面几个意思？</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6809,7 +6899,11 @@
           <t>https://book.douban.com/subject/36890681/</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>女性版的《飞跃疯人院》，但是对于女性而言，哪里都无自由，外面的世界似乎是一个更大的疯人院。“男女的疯狂不可同日而语，男人的疯狂作用于他人，女性的疯狂反噬自身”。</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6836,7 +6930,11 @@
           <t>https://book.douban.com/subject/35141940/</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>你的偶像可以在获奖之后写出《霍乱时期的爱情》，你呢？祝好</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6863,7 +6961,11 @@
           <t>https://book.douban.com/subject/27611824/</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>妈妈爸爸，这些称呼，支撑的是爱，不是血缘</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6890,7 +6992,11 @@
           <t>https://book.douban.com/subject/35406615/</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>人是怎么疯的：FIRST BLOOD：我瞧不起所有人。DOUBLE KILL：他们凭什么也瞧不起我。TRIPLE KILL：我好像也瞧不起我。</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6917,7 +7023,11 @@
           <t>https://book.douban.com/subject/1068920/</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>有一天我梦醒了，窗外是氤氲不化的雾气，我走到窗边，原来是夜里下了雪，空气一片苍茫，我又想起思嘉，在那场大雾中迷路，恐慌，奔跑，喘息，寻找，家。而瑞德已决意放弃一切。包括她。但我也不是十五岁的我了。那时我见她玫瑰红睡袍，一杯白兰地，手法娴熟，一饮而尽。我怎么学得会像她喝酒这般痛饮人生。可我知道什么是痛。</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6944,7 +7054,11 @@
           <t>https://book.douban.com/subject/36496555/</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>《刀，重叠的刀》我愿称之为一种韩女经典气质的体现…</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6971,7 +7085,11 @@
           <t>https://book.douban.com/subject/36698238/</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>看到结尾猞猁之死简直震撼和愤怒得想大哭，这种愤怒持续到封底那个什么狗屁评论家说marlen是“叔本华和加缪的结合”……男的别蹭好吧……</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6998,7 +7116,11 @@
           <t>https://book.douban.com/subject/26904658/</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>莫言的文字真是太疯狂了</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7025,7 +7147,11 @@
           <t>https://book.douban.com/subject/1400705/</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>真心欣赏不来</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7052,7 +7178,11 @@
           <t>https://book.douban.com/subject/30254298/</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>我没有读出悲喜，只能是闲暇的消遣，没有内心的波动。“写给每个人心中的山和海。”我希望我心中的山和海不要是在自己的世界里，沉醉在自己的小情绪里，我理解的山和海是宽阔的厚重的，是有沉淀的。这些小情绪太浅显了，青春疼痛已经不能打动我了。什么叫写小人物的悲喜命运，请看老舍和鲁迅，它是需要烟火气的，是由小见大的，是轻巧一扔石子激起波澜壮阔。不是带着壮阔的心去扔石子，不是扔出石子还要让石子有什么样子的弧度与旋转，太刻意的要用力又要装得不用力了。</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7079,7 +7209,11 @@
           <t>https://book.douban.com/subject/37008516/</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>8分。这8分是和《清明上河图密码》对比之后的评价，我给《清明》一书全六部的均分应该是6.3分，对比之下，无论从谜题质量和数量，还是对人物的描写，以及作者在创作中希望表达出来的单个的案件和大时代的背景相融合的庞大野望，记无忌历时五年写成的本书绝对比《清明》一书精彩百倍。如果手松一点可以打到9分，但本书还是有一些可以改进的地方，例如增加示意图。这里还要说一下，本书进入最终的解答篇章之后，可以发现作者构思的完整，对于真凶动机的展现，更是可以得到无比充分的推理小说阅读快感。</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7106,7 +7240,11 @@
           <t>https://book.douban.com/subject/37022692/</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>雌雄同体的设定不仅仅是猎奇，更是一种“去性别化”的思想实验，科幻小说负责抛出问题，留给时代做出思考和反应。</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7133,7 +7271,11 @@
           <t>https://book.douban.com/subject/22714154/</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>金宇澄简直是文坛徐根宝  繁花=上海滩《渴望》+网络文学话本+风土人情博物志+手艺人叙事+土先锋精神   非常好看 读到小毛跟阿宝、沪生重逢那段很感动的 整本书概括起来就是姝华的那封信 “年纪越长，越觉得孤独，是正常的，独立出生，独立去死。人和人，无法相通，人间的佳恶情态，已经不值一笑，人生是一次荒凉的旅行。”</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7160,7 +7302,11 @@
           <t>https://book.douban.com/subject/35517022/</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>比《烧纸》写得更好。他写那些执拗地活在云端的人，写看上去会像善人的恶人，写那些对生活本质或笃定或怀疑的人。他不歌颂，也不批判，因为他深知人的复杂和单纯、人的伪善和伪理想，以及人的无力和残忍。喜欢这样的小说，喜欢这样的小说家~</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7187,7 +7333,11 @@
           <t>https://book.douban.com/subject/35802914/</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>没有战争和马，没有征服与屈辱，女性作家就算是写不同的文明冲突也写的那样澄澈，她甚至写出了共生。她将苦难写为“日常生活出现的裂缝”，多么轻盈啊。是我这几年看过最有女性力量的科幻短篇：记得我，不要忘记我，便是足以打动人心的爱，性缘之外的关系非常广阔，那种跨越一切时间与空间，广泛联结她者的爱，只有女性作者写得出来。</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7214,7 +7364,11 @@
           <t>https://book.douban.com/subject/35653884/</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>不用怀疑，99%的中国作家写不出里面的一个自然段。</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7241,7 +7395,11 @@
           <t>https://book.douban.com/subject/30230525/</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>在图书馆看到，这个版本里面还夹了张借书卡，但是反面没有画哈哈哈哈（有画就更好玩了</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7268,7 +7426,11 @@
           <t>https://book.douban.com/subject/35965039/</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>读这本书的时候，无端想起了生命中许多后悔的事，比如早逝的哥哥、给我宠爱却不断被青春期的我拒绝的父亲，比如最近故去的姥姥，还有那些来不及哀悼的人和瞬间。渺小的我穿行在数个片断之中，等待着答案。这本书不是答案本身，却在夜深人静之时掀开了记忆的窗帷，这疲惫的生活啊，终于在悠长绵密的回忆中得以停歇。</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7295,7 +7457,11 @@
           <t>https://book.douban.com/subject/37022202/</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>秋天了，王老师又织了一件毛衣。</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8972,8 +9138,8 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>这是最好的一本,
-读书时既快乐又满足  折服于罗琳谋篇布局的能力  我当时就说，只凭写作手法，她已经是一等作家。再加上故事，她是伟大作家
+          <t>这是最好的一本,_x000D_
+读书时既快乐又满足  折服于罗琳谋篇布局的能力  我当时就说，只凭写作手法，她已经是一等作家。再加上故事，她是伟大作家_x000D_
 读到邓布利多发派任务时 心里激动万分，太棒了，反击！而且各路英豪重出江湖   定让世人大吃一惊 大开眼界  Let&amp;#39;hit it</t>
         </is>
       </c>
